--- a/Analyses/United States Cumulative Normal SitDay 100.xlsx
+++ b/Analyses/United States Cumulative Normal SitDay 100.xlsx
@@ -9,15 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11232"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11232" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Normal Logistic" sheetId="1" r:id="rId1"/>
     <sheet name="US Counties Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Normal Logistic'!$N$1:$N$3</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'US Counties Cumulative'!$L$3:$L$5</definedName>
@@ -84,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Total</t>
   </si>
@@ -321,7 +318,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -339,6 +335,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2447,11 +2444,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="574156576"/>
-        <c:axId val="574153440"/>
+        <c:axId val="565042048"/>
+        <c:axId val="565042440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="574156576"/>
+        <c:axId val="565042048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -2570,12 +2567,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574153440"/>
+        <c:crossAx val="565042440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="574153440"/>
+        <c:axId val="565042440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2693,7 +2690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574156576"/>
+        <c:crossAx val="565042048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5071,11 +5068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="588392264"/>
-        <c:axId val="588393048"/>
+        <c:axId val="813370160"/>
+        <c:axId val="1214500064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="588392264"/>
+        <c:axId val="813370160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -5192,12 +5189,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588393048"/>
+        <c:crossAx val="1214500064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="588393048"/>
+        <c:axId val="1214500064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5310,7 +5307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588392264"/>
+        <c:crossAx val="813370160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6476,11 +6473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="379607112"/>
-        <c:axId val="382056848"/>
+        <c:axId val="1360424904"/>
+        <c:axId val="515917024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="379607112"/>
+        <c:axId val="1360424904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -6599,12 +6596,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382056848"/>
+        <c:crossAx val="515917024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382056848"/>
+        <c:axId val="515917024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6718,7 +6715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379607112"/>
+        <c:crossAx val="1360424904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7990,11 +7987,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="574154224"/>
-        <c:axId val="382573336"/>
+        <c:axId val="863008800"/>
+        <c:axId val="863009192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="574154224"/>
+        <c:axId val="863008800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40"/>
@@ -8111,12 +8108,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382573336"/>
+        <c:crossAx val="863009192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382573336"/>
+        <c:axId val="863009192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8229,7 +8226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574154224"/>
+        <c:crossAx val="863008800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8804,11 +8801,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381684576"/>
-        <c:axId val="580925616"/>
+        <c:axId val="863009976"/>
+        <c:axId val="863010368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381684576"/>
+        <c:axId val="863009976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8867,12 +8864,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580925616"/>
+        <c:crossAx val="863010368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="580925616"/>
+        <c:axId val="863010368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8929,7 +8926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381684576"/>
+        <c:crossAx val="863009976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8993,6 +8990,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Counties</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -9375,11 +9397,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="381683400"/>
-        <c:axId val="564055792"/>
+        <c:axId val="863011152"/>
+        <c:axId val="863011544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="381683400"/>
+        <c:axId val="863011152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9421,7 +9443,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564055792"/>
+        <c:crossAx val="863011544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9429,7 +9451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="564055792"/>
+        <c:axId val="863011544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9480,7 +9502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381683400"/>
+        <c:crossAx val="863011152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10598,304 +10620,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.2815923234939673E-8</c:v>
+                  <c:v>1.2816411487624947E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.698037306346857E-8</c:v>
+                  <c:v>2.6981341223052354E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.615613860719856E-8</c:v>
+                  <c:v>5.6158032308505105E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1555817331210632E-7</c:v>
+                  <c:v>1.1556182633555585E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3510468189896453E-7</c:v>
+                  <c:v>2.3511163007898614E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7291406767610625E-7</c:v>
+                  <c:v>4.7292709492159607E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4051741132896334E-7</c:v>
+                  <c:v>9.4054148059969461E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8493476131560955E-6</c:v>
+                  <c:v>1.8493914201870023E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5953483536958919E-6</c:v>
+                  <c:v>3.5954268603998181E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9109521607099801E-6</c:v>
+                  <c:v>6.9110906208173928E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3134490546920372E-5</c:v>
+                  <c:v>1.3134730718010939E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4681476989409284E-5</c:v>
+                  <c:v>2.468188639384514E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5858089159872865E-5</c:v>
+                  <c:v>4.5858774316181466E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.4246563921624423E-5</c:v>
+                  <c:v>8.4247688217252997E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5303283737118785E-4</c:v>
+                  <c:v>1.5303464330668098E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7486424445824341E-4</c:v>
+                  <c:v>2.7486707768458688E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8815562005334948E-4</c:v>
+                  <c:v>4.8815994780392611E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.572554882786737E-4</c:v>
+                  <c:v>8.5726189561424694E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4886067432416988E-3</c:v>
+                  <c:v>1.4886158741053335E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.5560745148707994E-3</c:v>
+                  <c:v>2.5560868969888143E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3400753963932755E-3</c:v>
+                  <c:v>4.3400910433635123E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.2871554228689595E-3</c:v>
+                  <c:v>7.2871730347656921E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.209937425108982E-2</c:v>
+                  <c:v>1.2099389725176641E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9866411432477398E-2</c:v>
+                  <c:v>1.9866415233671639E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2257857193130533E-2</c:v>
+                  <c:v>3.2257829902297919E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.1798784037124679E-2</c:v>
+                  <c:v>5.1798689074570248E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.2258435006028877E-2</c:v>
+                  <c:v>8.2258207097828787E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.12918959337883099</c:v>
+                  <c:v>0.12918912077782349</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.20066460176317899</c:v>
+                  <c:v>0.20066369954492475</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3082624901866694</c:v>
+                  <c:v>0.30826086111789885</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.46836932674491227</c:v>
+                  <c:v>0.46836650529450824</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.70385939832427746</c:v>
+                  <c:v>0.70385467241283384</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0462264207229475</c:v>
+                  <c:v>1.0462187248854191</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5382295340391337</c:v>
+                  <c:v>1.5382173069540015</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.2371059404893323</c:v>
+                  <c:v>2.2370869395074884</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.2183781801072269</c:v>
+                  <c:v>3.2183492457448968</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.5802469262926335</c:v>
+                  <c:v>4.5802036909222279</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.448508161718868</c:v>
+                  <c:v>6.4484446991990847</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.9818661420911141</c:v>
+                  <c:v>8.9817745590943137</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12.377431821813451</c:v>
+                  <c:v>12.377301797325948</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16.876103740944735</c:v>
+                  <c:v>16.875922027881138</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>22.767430674252221</c:v>
+                  <c:v>22.767180586175449</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>30.393461273357207</c:v>
+                  <c:v>30.393122189493706</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>40.151006693395779</c:v>
+                  <c:v>40.150553625729735</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>52.49169091549048</c:v>
+                  <c:v>52.491094191634957</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>67.919154108796832</c:v>
+                  <c:v>67.918379232208864</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>86.982820130077087</c:v>
+                  <c:v>86.981827883455594</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>110.26775067017735</c:v>
+                  <c:v>110.26649752695566</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>138.38029139015032</c:v>
+                  <c:v>138.37873029146007</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>171.92946865096724</c:v>
+                  <c:v>171.9275501902828</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>211.50440983105358</c:v>
+                  <c:v>211.50208386559908</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>257.64841738271116</c:v>
+                  <c:v>257.64563506015645</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>310.83069960094582</c:v>
+                  <c:v>310.82741575350155</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>371.41711532518758</c:v>
+                  <c:v>371.41329114354988</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>439.64158697702311</c:v>
+                  <c:v>439.63719283726209</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>515.58003772272468</c:v>
+                  <c:v>515.57505600434945</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>599.12877988237517</c:v>
+                  <c:v>599.12320758986993</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>689.98919807076402</c:v>
+                  <c:v>689.98304905798443</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>787.66032068419838</c:v>
+                  <c:v>787.6536272843889</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>891.4404626934587</c:v>
+                  <c:v>891.43327657909242</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1000.4385746504022</c:v>
+                  <c:v>1000.4309667865734</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1113.5952876687618</c:v>
+                  <c:v>1113.5873472793669</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1229.7129558066104</c:v>
+                  <c:v>1229.7047883400364</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1347.4933279201198</c:v>
+                  <c:v>1347.4850520748259</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1465.5808943101074</c:v>
+                  <c:v>1465.5726382535499</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1582.6095071047962</c:v>
+                  <c:v>1582.6014040844041</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1697.2496122816597</c:v>
+                  <c:v>1697.2417958773783</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1808.2533821877885</c:v>
+                  <c:v>1808.2459814867293</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1914.4952054085763</c:v>
+                  <c:v>1914.4883403902381</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2015.0053586426518</c:v>
+                  <c:v>2014.9991360471276</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2108.9952155463297</c:v>
+                  <c:v>2108.9897254595448</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2195.8729874989494</c:v>
+                  <c:v>2195.868300832266</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2275.2496790052182</c:v>
+                  <c:v>2275.2458459775648</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2346.9356122753697</c:v>
+                  <c:v>2346.9326619312342</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2410.9284730333179</c:v>
+                  <c:v>2410.9264137567097</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2467.3943058479936</c:v>
+                  <c:v>2467.3931267673884</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2516.6432110238648</c:v>
+                  <c:v>2516.6428841514748</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2559.1016528501887</c:v>
+                  <c:v>2559.1021357641939</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2595.2832848409407</c:v>
+                  <c:v>2595.2845237030251</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2625.7600507656675</c:v>
+                  <c:v>2625.761983467833</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2651.1350614271391</c:v>
+                  <c:v>2651.1376206790796</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2672.0184136161929</c:v>
+                  <c:v>2672.0215298140024</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2689.0067486152598</c:v>
+                  <c:v>2689.0103523696553</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2702.6669796071496</c:v>
+                  <c:v>2702.6710038503661</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2713.5242809556134</c:v>
+                  <c:v>2713.5286625865019</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2722.0541499550382</c:v>
+                  <c:v>2722.0588310184294</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2728.6781366282958</c:v>
+                  <c:v>2728.683065054855</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2733.7626940518348</c:v>
+                  <c:v>2733.7678240071546</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2737.6205275454295</c:v>
+                  <c:v>2737.6258194515408</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2740.5138072251812</c:v>
+                  <c:v>2740.5192275244935</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2742.6586426185399</c:v>
+                  <c:v>2742.6641633504987</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2744.2302864409353</c:v>
+                  <c:v>2744.2358846968782</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2745.3686235707301</c:v>
+                  <c:v>2745.3742808840539</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2746.1835985611342</c:v>
+                  <c:v>2746.1893002795641</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2746.7603308511334</c:v>
+                  <c:v>2746.7660655268705</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2747.1637540392703</c:v>
+                  <c:v>2747.1695128621805</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2747.4426897055041</c:v>
+                  <c:v>2747.448465995044</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2747.6333252332174</c:v>
+                  <c:v>2747.6391139968714</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2747.7621087352263</c:v>
+                  <c:v>2747.7679062950829</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2747.848103738238</c:v>
+                  <c:v>2747.8539074228734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11890,304 +11912,304 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>9.6134921282205184E-9</c:v>
+                  <c:v>9.6138296771332367E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9931014205937105E-8</c:v>
+                  <c:v>1.9931670384252986E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0844103527546309E-8</c:v>
+                  <c:v>4.0845360930043706E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2733440297892552E-8</c:v>
+                  <c:v>8.2735814814165456E-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6564737022046237E-7</c:v>
+                  <c:v>1.6565178781311566E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2782325116642654E-7</c:v>
+                  <c:v>3.2783134478291858E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4127853974597702E-7</c:v>
+                  <c:v>6.4129313635482241E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2399535207409825E-6</c:v>
+                  <c:v>1.2399794195908675E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3698226802106968E-6</c:v>
+                  <c:v>2.369867860005586E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4769066930016203E-6</c:v>
+                  <c:v>4.4769841200549433E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3597247918331615E-6</c:v>
+                  <c:v>8.3598550142484694E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5429706452567615E-5</c:v>
+                  <c:v>1.5429921116864143E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8149785708699285E-5</c:v>
+                  <c:v>2.8150131948385757E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0762647969707776E-5</c:v>
+                  <c:v>5.0763193153525951E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0482624640496112E-5</c:v>
+                  <c:v>9.048346000081849E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5941818378284366E-4</c:v>
+                  <c:v>1.5941942360030929E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7762736440953018E-4</c:v>
+                  <c:v>2.7762913413410811E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.7790153938455355E-4</c:v>
+                  <c:v>4.7790394047415971E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.1314188957040863E-4</c:v>
+                  <c:v>8.131449197140674E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3675587285256331E-3</c:v>
+                  <c:v>1.3675621216385216E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2734079946473492E-3</c:v>
+                  <c:v>2.2734109234378605E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7356013698975231E-3</c:v>
+                  <c:v>3.7356019222855477E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0672992417396335E-3</c:v>
+                  <c:v>6.0672935379547264E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.7405179294739307E-3</c:v>
+                  <c:v>9.740498686195748E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5456830024411387E-2</c:v>
+                  <c:v>1.5456784293175917E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4244350729808021E-2</c:v>
+                  <c:v>2.4244256437669844E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.7588278072129909E-2</c:v>
+                  <c:v>3.7588098874218559E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.7603125688762934E-2</c:v>
+                  <c:v>5.7602803509741493E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.7255219396565956E-2</c:v>
+                  <c:v>8.7254663901556048E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.13064371625417243</c:v>
+                  <c:v>0.13064279036727916</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.19334697536939441</c:v>
+                  <c:v>0.19334547587629083</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.28283814833332832</c:v>
+                  <c:v>0.28283578059977427</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.40896894780892018</c:v>
+                  <c:v>0.40896529376490287</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.58451334221855167</c:v>
+                  <c:v>0.58450782104959442</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.82575320810288566</c:v>
+                  <c:v>0.82574502960853435</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1530757967548126</c:v>
+                  <c:v>1.1530639081247167</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.5915386470871982</c:v>
+                  <c:v>1.591521674934159</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.1713421733874259</c:v>
+                  <c:v>2.1713183642589402</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.9281349763461963</c:v>
+                  <c:v>2.9281021405594676</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.9030639118635748</c:v>
+                  <c:v>3.9030193772630857</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.1424725171084589</c:v>
+                  <c:v>5.1424131010522141</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.6971502422026958</c:v>
+                  <c:v>6.6970722514993621</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.6210437766717849</c:v>
+                  <c:v>8.6209430460176915</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10.969362909010618</c:v>
+                  <c:v>10.969234888386163</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.796048272660265</c:v>
+                  <c:v>13.795888172825022</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17.150617124182173</c:v>
+                  <c:v>17.150420126607212</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21.074464307761716</c:v>
+                  <c:v>21.074225840931497</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>25.596765069485865</c:v>
+                  <c:v>25.596481147548893</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>30.730198585605713</c:v>
+                  <c:v>30.729866198143331</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>36.466778326572914</c:v>
+                  <c:v>36.466395860329314</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42.774128850263487</c:v>
+                  <c:v>42.773696515822188</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49.592579201247744</c:v>
+                  <c:v>49.592099430819218</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>56.83344262866548</c:v>
+                  <c:v>56.832920406428308</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>64.378814921590845</c:v>
+                  <c:v>64.378258006420239</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>72.083146892755664</c:v>
+                  <c:v>72.082565895496316</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>79.776732459093978</c:v>
+                  <c:v>79.776140743247225</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>87.271109310240831</c:v>
+                  <c:v>87.270522696013387</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>94.366205970596866</c:v>
+                  <c:v>94.365642237105178</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>100.85890259466572</c:v>
+                  <c:v>100.8583807925435</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>106.55252076213441</c:v>
+                  <c:v>106.55206036719683</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>111.26663767414522</c:v>
+                  <c:v>111.26625763014415</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>114.84654813071501</c:v>
+                  <c:v>114.84626584351086</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>117.17168471853479</c:v>
+                  <c:v>117.17151507332845</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>118.16235779485677</c:v>
+                  <c:v>118.16231227104511</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>117.78428992992504</c:v>
+                  <c:v>117.78437588392049</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>116.05058497779378</c:v>
+                  <c:v>116.05080515286626</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>113.02097402429095</c:v>
+                  <c:v>113.02132632908641</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>108.79839872666938</c:v>
+                  <c:v>108.7988763022399</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>103.52320460520973</c:v>
+                  <c:v>103.52379617642531</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>97.365401044192836</c:v>
+                  <c:v>97.366091527837852</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>90.515582944166269</c:v>
+                  <c:v>90.516354265348937</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>83.175188618260634</c:v>
+                  <c:v>83.176020671100218</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>75.546784128382228</c:v>
+                  <c:v>75.547655807772571</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>67.825017682388903</c:v>
+                  <c:v>67.825907911646794</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>60.188787592673883</c:v>
+                  <c:v>60.189676276893429</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>52.795027544599733</c:v>
+                  <c:v>52.795896390587963</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>45.774350667239986</c:v>
+                  <c:v>45.775183826426485</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>39.228627154972287</c:v>
+                  <c:v>39.22941166371487</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>33.230415632945153</c:v>
+                  <c:v>33.231141643143282</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>27.824039598695073</c:v>
+                  <c:v>27.824700408676378</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>23.028006223447417</c:v>
+                  <c:v>23.028598133190354</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>18.838409777493677</c:v>
+                  <c:v>18.838931802377871</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>15.232945451434734</c:v>
+                  <c:v>15.233398934427317</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12.17517690514412</c:v>
+                  <c:v>12.175565068730835</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.618745179483966</c:v>
+                  <c:v>9.6190726562840876</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7.5112688134211583</c:v>
+                  <c:v>7.511541189145631</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.7977560270684476</c:v>
+                  <c:v>5.7979794223094654</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.4234213855328868</c:v>
+                  <c:v>4.4236020948455916</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.3358647672445851</c:v>
+                  <c:v>3.3360089660209984</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4866250570231077</c:v>
+                  <c:v>2.4867385794970751</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.8321622080861504</c:v>
+                  <c:v>1.8322503939407608</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.3343485309526018</c:v>
+                  <c:v>1.3344161336807454</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.9605641830781414</c:v>
+                  <c:v>0.96061533050944903</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.68349484268662586</c:v>
+                  <c:v>0.68353303880701677</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.48072404014795056</c:v>
+                  <c:v>0.48075219725437573</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.33420133927457946</c:v>
+                  <c:v>0.33422183032274166</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.22965308135261789</c:v>
+                  <c:v>0.22966780375531567</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.15598689519193065</c:v>
+                  <c:v>0.15599733902372892</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.10472628472098479</c:v>
+                  <c:v>0.1047336000457143</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.9498435090771346E-2</c:v>
+                  <c:v>6.9503494778387423E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12202,11 +12224,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="564056576"/>
-        <c:axId val="564056968"/>
+        <c:axId val="863012328"/>
+        <c:axId val="863076384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564056576"/>
+        <c:axId val="863012328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12263,12 +12285,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564056968"/>
+        <c:crossAx val="863076384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564056968"/>
+        <c:axId val="863076384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12325,7 +12347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564056576"/>
+        <c:crossAx val="863012328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13475,304 +13497,304 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>9.6134921282205184E-9</c:v>
+                  <c:v>9.6138296771332367E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9931014205937105E-8</c:v>
+                  <c:v>1.9931670384252986E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0844103527546309E-8</c:v>
+                  <c:v>4.0845360930043706E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2733440297892552E-8</c:v>
+                  <c:v>8.2735814814165456E-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6564737022046237E-7</c:v>
+                  <c:v>1.6565178781311566E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2782325116642654E-7</c:v>
+                  <c:v>3.2783134478291858E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4127853974597702E-7</c:v>
+                  <c:v>6.4129313635482241E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2399535207409825E-6</c:v>
+                  <c:v>1.2399794195908675E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3698226802106968E-6</c:v>
+                  <c:v>2.369867860005586E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4769066930016203E-6</c:v>
+                  <c:v>4.4769841200549433E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3597247918331615E-6</c:v>
+                  <c:v>8.3598550142484694E-6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5429706452567615E-5</c:v>
+                  <c:v>1.5429921116864143E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8149785708699285E-5</c:v>
+                  <c:v>2.8150131948385757E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0762647969707776E-5</c:v>
+                  <c:v>5.0763193153525951E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0482624640496112E-5</c:v>
+                  <c:v>9.048346000081849E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5941818378284366E-4</c:v>
+                  <c:v>1.5941942360030929E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7762736440953018E-4</c:v>
+                  <c:v>2.7762913413410811E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.7790153938455355E-4</c:v>
+                  <c:v>4.7790394047415971E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.1314188957040863E-4</c:v>
+                  <c:v>8.131449197140674E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3675587285256331E-3</c:v>
+                  <c:v>1.3675621216385216E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2734079946473492E-3</c:v>
+                  <c:v>2.2734109234378605E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7356013698975231E-3</c:v>
+                  <c:v>3.7356019222855477E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0672992417396335E-3</c:v>
+                  <c:v>6.0672935379547264E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.7405179294739307E-3</c:v>
+                  <c:v>9.740498686195748E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5456830024411387E-2</c:v>
+                  <c:v>1.5456784293175917E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4244350729808021E-2</c:v>
+                  <c:v>2.4244256437669844E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.7588278072129909E-2</c:v>
+                  <c:v>3.7588098874218559E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.7603125688762934E-2</c:v>
+                  <c:v>5.7602803509741493E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.7255219396565956E-2</c:v>
+                  <c:v>8.7254663901556048E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.13064371625417243</c:v>
+                  <c:v>0.13064279036727916</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.19334697536939441</c:v>
+                  <c:v>0.19334547587629083</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.28283814833332832</c:v>
+                  <c:v>0.28283578059977427</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.40896894780892018</c:v>
+                  <c:v>0.40896529376490287</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.58451334221855167</c:v>
+                  <c:v>0.58450782104959442</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.82575320810288566</c:v>
+                  <c:v>0.82574502960853435</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1530757967548126</c:v>
+                  <c:v>1.1530639081247167</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.5915386470871982</c:v>
+                  <c:v>1.591521674934159</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.1713421733874259</c:v>
+                  <c:v>2.1713183642589402</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.9281349763461963</c:v>
+                  <c:v>2.9281021405594676</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.9030639118635748</c:v>
+                  <c:v>3.9030193772630857</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.1424725171084589</c:v>
+                  <c:v>5.1424131010522141</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.6971502422026958</c:v>
+                  <c:v>6.6970722514993621</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.6210437766717849</c:v>
+                  <c:v>8.6209430460176915</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10.969362909010618</c:v>
+                  <c:v>10.969234888386163</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.796048272660265</c:v>
+                  <c:v>13.795888172825022</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17.150617124182173</c:v>
+                  <c:v>17.150420126607212</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>21.074464307761716</c:v>
+                  <c:v>21.074225840931497</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>25.596765069485865</c:v>
+                  <c:v>25.596481147548893</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>30.730198585605713</c:v>
+                  <c:v>30.729866198143331</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>36.466778326572914</c:v>
+                  <c:v>36.466395860329314</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42.774128850263487</c:v>
+                  <c:v>42.773696515822188</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>49.592579201247744</c:v>
+                  <c:v>49.592099430819218</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>56.83344262866548</c:v>
+                  <c:v>56.832920406428308</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>64.378814921590845</c:v>
+                  <c:v>64.378258006420239</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>72.083146892755664</c:v>
+                  <c:v>72.082565895496316</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>79.776732459093978</c:v>
+                  <c:v>79.776140743247225</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>87.271109310240831</c:v>
+                  <c:v>87.270522696013387</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>94.366205970596866</c:v>
+                  <c:v>94.365642237105178</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>100.85890259466572</c:v>
+                  <c:v>100.8583807925435</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>106.55252076213441</c:v>
+                  <c:v>106.55206036719683</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>111.26663767414522</c:v>
+                  <c:v>111.26625763014415</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>114.84654813071501</c:v>
+                  <c:v>114.84626584351086</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>117.17168471853479</c:v>
+                  <c:v>117.17151507332845</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>118.16235779485677</c:v>
+                  <c:v>118.16231227104511</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>117.78428992992504</c:v>
+                  <c:v>117.78437588392049</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>116.05058497779378</c:v>
+                  <c:v>116.05080515286626</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>113.02097402429095</c:v>
+                  <c:v>113.02132632908641</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>108.79839872666938</c:v>
+                  <c:v>108.7988763022399</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>103.52320460520973</c:v>
+                  <c:v>103.52379617642531</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>97.365401044192836</c:v>
+                  <c:v>97.366091527837852</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>90.515582944166269</c:v>
+                  <c:v>90.516354265348937</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>83.175188618260634</c:v>
+                  <c:v>83.176020671100218</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>75.546784128382228</c:v>
+                  <c:v>75.547655807772571</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>67.825017682388903</c:v>
+                  <c:v>67.825907911646794</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>60.188787592673883</c:v>
+                  <c:v>60.189676276893429</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>52.795027544599733</c:v>
+                  <c:v>52.795896390587963</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>45.774350667239986</c:v>
+                  <c:v>45.775183826426485</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>39.228627154972287</c:v>
+                  <c:v>39.22941166371487</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>33.230415632945153</c:v>
+                  <c:v>33.231141643143282</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>27.824039598695073</c:v>
+                  <c:v>27.824700408676378</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>23.028006223447417</c:v>
+                  <c:v>23.028598133190354</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>18.838409777493677</c:v>
+                  <c:v>18.838931802377871</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>15.232945451434734</c:v>
+                  <c:v>15.233398934427317</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>12.17517690514412</c:v>
+                  <c:v>12.175565068730835</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.618745179483966</c:v>
+                  <c:v>9.6190726562840876</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7.5112688134211583</c:v>
+                  <c:v>7.511541189145631</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.7977560270684476</c:v>
+                  <c:v>5.7979794223094654</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.4234213855328868</c:v>
+                  <c:v>4.4236020948455916</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.3358647672445851</c:v>
+                  <c:v>3.3360089660209984</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4866250570231077</c:v>
+                  <c:v>2.4867385794970751</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.8321622080861504</c:v>
+                  <c:v>1.8322503939407608</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.3343485309526018</c:v>
+                  <c:v>1.3344161336807454</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.9605641830781414</c:v>
+                  <c:v>0.96061533050944903</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.68349484268662586</c:v>
+                  <c:v>0.68353303880701677</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.48072404014795056</c:v>
+                  <c:v>0.48075219725437573</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.33420133927457946</c:v>
+                  <c:v>0.33422183032274166</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.22965308135261789</c:v>
+                  <c:v>0.22966780375531567</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.15598689519193065</c:v>
+                  <c:v>0.15599733902372892</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.10472628472098479</c:v>
+                  <c:v>0.1047336000457143</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.9498435090771346E-2</c:v>
+                  <c:v>6.9503494778387423E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13787,11 +13809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="564057752"/>
-        <c:axId val="564058144"/>
+        <c:axId val="863077168"/>
+        <c:axId val="863077560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="564057752"/>
+        <c:axId val="863077168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13848,12 +13870,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564058144"/>
+        <c:crossAx val="863077560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="564058144"/>
+        <c:axId val="863077560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13910,7 +13932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564057752"/>
+        <c:crossAx val="863077168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18703,1736 +18725,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="USA Counties 29 Apr 2020"/>
-      <sheetName val="US Counties Cumulative"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="9">
-          <cell r="K9" t="str">
-            <v>Counties</v>
-          </cell>
-          <cell r="L9" t="str">
-            <v>Projected</v>
-          </cell>
-          <cell r="M9" t="str">
-            <v>New</v>
-          </cell>
-          <cell r="N9" t="str">
-            <v>Projected</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="J10">
-            <v>1</v>
-          </cell>
-          <cell r="K10">
-            <v>1</v>
-          </cell>
-          <cell r="L10">
-            <v>1.2815923234939673E-8</v>
-          </cell>
-          <cell r="M10">
-            <v>1</v>
-          </cell>
-          <cell r="N10">
-            <v>9.6134921282205184E-9</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="J11">
-            <v>2</v>
-          </cell>
-          <cell r="K11">
-            <v>1</v>
-          </cell>
-          <cell r="L11">
-            <v>2.698037306346857E-8</v>
-          </cell>
-          <cell r="M11">
-            <v>0</v>
-          </cell>
-          <cell r="N11">
-            <v>1.9931014205937105E-8</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="J12">
-            <v>3</v>
-          </cell>
-          <cell r="K12">
-            <v>1</v>
-          </cell>
-          <cell r="L12">
-            <v>5.615613860719856E-8</v>
-          </cell>
-          <cell r="M12">
-            <v>0</v>
-          </cell>
-          <cell r="N12">
-            <v>4.0844103527546309E-8</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="J13">
-            <v>4</v>
-          </cell>
-          <cell r="K13">
-            <v>2</v>
-          </cell>
-          <cell r="L13">
-            <v>1.1555817331210632E-7</v>
-          </cell>
-          <cell r="M13">
-            <v>1</v>
-          </cell>
-          <cell r="N13">
-            <v>8.2733440297892552E-8</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="J14">
-            <v>5</v>
-          </cell>
-          <cell r="K14">
-            <v>3</v>
-          </cell>
-          <cell r="L14">
-            <v>2.3510468189896453E-7</v>
-          </cell>
-          <cell r="M14">
-            <v>1</v>
-          </cell>
-          <cell r="N14">
-            <v>1.6564737022046237E-7</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="J15">
-            <v>6</v>
-          </cell>
-          <cell r="K15">
-            <v>5</v>
-          </cell>
-          <cell r="L15">
-            <v>4.7291406767610625E-7</v>
-          </cell>
-          <cell r="M15">
-            <v>2</v>
-          </cell>
-          <cell r="N15">
-            <v>3.2782325116642654E-7</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="J16">
-            <v>7</v>
-          </cell>
-          <cell r="K16">
-            <v>5</v>
-          </cell>
-          <cell r="L16">
-            <v>9.4051741132896334E-7</v>
-          </cell>
-          <cell r="M16">
-            <v>0</v>
-          </cell>
-          <cell r="N16">
-            <v>6.4127853974597702E-7</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="J17">
-            <v>8</v>
-          </cell>
-          <cell r="K17">
-            <v>5</v>
-          </cell>
-          <cell r="L17">
-            <v>1.8493476131560955E-6</v>
-          </cell>
-          <cell r="M17">
-            <v>0</v>
-          </cell>
-          <cell r="N17">
-            <v>1.2399535207409825E-6</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="J18">
-            <v>9</v>
-          </cell>
-          <cell r="K18">
-            <v>5</v>
-          </cell>
-          <cell r="L18">
-            <v>3.5953483536958919E-6</v>
-          </cell>
-          <cell r="M18">
-            <v>0</v>
-          </cell>
-          <cell r="N18">
-            <v>2.3698226802106968E-6</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="J19">
-            <v>10</v>
-          </cell>
-          <cell r="K19">
-            <v>5</v>
-          </cell>
-          <cell r="L19">
-            <v>6.9109521607099801E-6</v>
-          </cell>
-          <cell r="M19">
-            <v>0</v>
-          </cell>
-          <cell r="N19">
-            <v>4.4769066930016203E-6</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="J20">
-            <v>11</v>
-          </cell>
-          <cell r="K20">
-            <v>6</v>
-          </cell>
-          <cell r="L20">
-            <v>1.3134490546920372E-5</v>
-          </cell>
-          <cell r="M20">
-            <v>1</v>
-          </cell>
-          <cell r="N20">
-            <v>8.3597247918331615E-6</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="J21">
-            <v>12</v>
-          </cell>
-          <cell r="K21">
-            <v>7</v>
-          </cell>
-          <cell r="L21">
-            <v>2.4681476989409284E-5</v>
-          </cell>
-          <cell r="M21">
-            <v>1</v>
-          </cell>
-          <cell r="N21">
-            <v>1.5429706452567615E-5</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="J22">
-            <v>13</v>
-          </cell>
-          <cell r="K22">
-            <v>8</v>
-          </cell>
-          <cell r="L22">
-            <v>4.5858089159872865E-5</v>
-          </cell>
-          <cell r="M22">
-            <v>1</v>
-          </cell>
-          <cell r="N22">
-            <v>2.8149785708699285E-5</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="J23">
-            <v>14</v>
-          </cell>
-          <cell r="K23">
-            <v>8</v>
-          </cell>
-          <cell r="L23">
-            <v>8.4246563921624423E-5</v>
-          </cell>
-          <cell r="M23">
-            <v>0</v>
-          </cell>
-          <cell r="N23">
-            <v>5.0762647969707776E-5</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="J24">
-            <v>15</v>
-          </cell>
-          <cell r="K24">
-            <v>8</v>
-          </cell>
-          <cell r="L24">
-            <v>1.5303283737118785E-4</v>
-          </cell>
-          <cell r="M24">
-            <v>0</v>
-          </cell>
-          <cell r="N24">
-            <v>9.0482624640496112E-5</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="J25">
-            <v>16</v>
-          </cell>
-          <cell r="K25">
-            <v>9</v>
-          </cell>
-          <cell r="L25">
-            <v>2.7486424445824341E-4</v>
-          </cell>
-          <cell r="M25">
-            <v>1</v>
-          </cell>
-          <cell r="N25">
-            <v>1.5941818378284366E-4</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="J26">
-            <v>17</v>
-          </cell>
-          <cell r="K26">
-            <v>9</v>
-          </cell>
-          <cell r="L26">
-            <v>4.8815562005334948E-4</v>
-          </cell>
-          <cell r="M26">
-            <v>0</v>
-          </cell>
-          <cell r="N26">
-            <v>2.7762736440953018E-4</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="J27">
-            <v>18</v>
-          </cell>
-          <cell r="K27">
-            <v>9</v>
-          </cell>
-          <cell r="L27">
-            <v>8.572554882786737E-4</v>
-          </cell>
-          <cell r="M27">
-            <v>0</v>
-          </cell>
-          <cell r="N27">
-            <v>4.7790153938455355E-4</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="J28">
-            <v>19</v>
-          </cell>
-          <cell r="K28">
-            <v>9</v>
-          </cell>
-          <cell r="L28">
-            <v>1.4886067432416988E-3</v>
-          </cell>
-          <cell r="M28">
-            <v>0</v>
-          </cell>
-          <cell r="N28">
-            <v>8.1314188957040863E-4</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="J29">
-            <v>20</v>
-          </cell>
-          <cell r="K29">
-            <v>9</v>
-          </cell>
-          <cell r="L29">
-            <v>2.5560745148707994E-3</v>
-          </cell>
-          <cell r="M29">
-            <v>0</v>
-          </cell>
-          <cell r="N29">
-            <v>1.3675587285256331E-3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="J30">
-            <v>21</v>
-          </cell>
-          <cell r="K30">
-            <v>10</v>
-          </cell>
-          <cell r="L30">
-            <v>4.3400753963932755E-3</v>
-          </cell>
-          <cell r="M30">
-            <v>1</v>
-          </cell>
-          <cell r="N30">
-            <v>2.2734079946473492E-3</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="J31">
-            <v>22</v>
-          </cell>
-          <cell r="K31">
-            <v>10</v>
-          </cell>
-          <cell r="L31">
-            <v>7.2871554228689595E-3</v>
-          </cell>
-          <cell r="M31">
-            <v>0</v>
-          </cell>
-          <cell r="N31">
-            <v>3.7356013698975231E-3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32">
-            <v>23</v>
-          </cell>
-          <cell r="K32">
-            <v>11</v>
-          </cell>
-          <cell r="L32">
-            <v>1.209937425108982E-2</v>
-          </cell>
-          <cell r="M32">
-            <v>1</v>
-          </cell>
-          <cell r="N32">
-            <v>6.0672992417396335E-3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="J33">
-            <v>24</v>
-          </cell>
-          <cell r="K33">
-            <v>11</v>
-          </cell>
-          <cell r="L33">
-            <v>1.9866411432477398E-2</v>
-          </cell>
-          <cell r="M33">
-            <v>0</v>
-          </cell>
-          <cell r="N33">
-            <v>9.7405179294739307E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="J34">
-            <v>25</v>
-          </cell>
-          <cell r="K34">
-            <v>11</v>
-          </cell>
-          <cell r="L34">
-            <v>3.2257857193130533E-2</v>
-          </cell>
-          <cell r="M34">
-            <v>0</v>
-          </cell>
-          <cell r="N34">
-            <v>1.5456830024411387E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="J35">
-            <v>26</v>
-          </cell>
-          <cell r="K35">
-            <v>11</v>
-          </cell>
-          <cell r="L35">
-            <v>5.1798784037124679E-2</v>
-          </cell>
-          <cell r="M35">
-            <v>0</v>
-          </cell>
-          <cell r="N35">
-            <v>2.4244350729808021E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="J36">
-            <v>27</v>
-          </cell>
-          <cell r="K36">
-            <v>11</v>
-          </cell>
-          <cell r="L36">
-            <v>8.2258435006028877E-2</v>
-          </cell>
-          <cell r="M36">
-            <v>0</v>
-          </cell>
-          <cell r="N36">
-            <v>3.7588278072129909E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="J37">
-            <v>28</v>
-          </cell>
-          <cell r="K37">
-            <v>12</v>
-          </cell>
-          <cell r="L37">
-            <v>0.12918959337883099</v>
-          </cell>
-          <cell r="M37">
-            <v>1</v>
-          </cell>
-          <cell r="N37">
-            <v>5.7603125688762934E-2</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="J38">
-            <v>29</v>
-          </cell>
-          <cell r="K38">
-            <v>12</v>
-          </cell>
-          <cell r="L38">
-            <v>0.20066460176317899</v>
-          </cell>
-          <cell r="M38">
-            <v>0</v>
-          </cell>
-          <cell r="N38">
-            <v>8.7255219396565956E-2</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="J39">
-            <v>30</v>
-          </cell>
-          <cell r="K39">
-            <v>12</v>
-          </cell>
-          <cell r="L39">
-            <v>0.3082624901866694</v>
-          </cell>
-          <cell r="M39">
-            <v>0</v>
-          </cell>
-          <cell r="N39">
-            <v>0.13064371625417243</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="J40">
-            <v>31</v>
-          </cell>
-          <cell r="K40">
-            <v>13</v>
-          </cell>
-          <cell r="L40">
-            <v>0.46836932674491227</v>
-          </cell>
-          <cell r="M40">
-            <v>1</v>
-          </cell>
-          <cell r="N40">
-            <v>0.19334697536939441</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="J41">
-            <v>32</v>
-          </cell>
-          <cell r="K41">
-            <v>14</v>
-          </cell>
-          <cell r="L41">
-            <v>0.70385939832427746</v>
-          </cell>
-          <cell r="M41">
-            <v>1</v>
-          </cell>
-          <cell r="N41">
-            <v>0.28283814833332832</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="J42">
-            <v>33</v>
-          </cell>
-          <cell r="K42">
-            <v>14</v>
-          </cell>
-          <cell r="L42">
-            <v>1.0462264207229475</v>
-          </cell>
-          <cell r="M42">
-            <v>0</v>
-          </cell>
-          <cell r="N42">
-            <v>0.40896894780892018</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="J43">
-            <v>34</v>
-          </cell>
-          <cell r="K43">
-            <v>14</v>
-          </cell>
-          <cell r="L43">
-            <v>1.5382295340391337</v>
-          </cell>
-          <cell r="M43">
-            <v>0</v>
-          </cell>
-          <cell r="N43">
-            <v>0.58451334221855167</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="J44">
-            <v>35</v>
-          </cell>
-          <cell r="K44">
-            <v>16</v>
-          </cell>
-          <cell r="L44">
-            <v>2.2371059404893323</v>
-          </cell>
-          <cell r="M44">
-            <v>2</v>
-          </cell>
-          <cell r="N44">
-            <v>0.82575320810288566</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="J45">
-            <v>36</v>
-          </cell>
-          <cell r="K45">
-            <v>17</v>
-          </cell>
-          <cell r="L45">
-            <v>3.2183781801072269</v>
-          </cell>
-          <cell r="M45">
-            <v>1</v>
-          </cell>
-          <cell r="N45">
-            <v>1.1530757967548126</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="J46">
-            <v>37</v>
-          </cell>
-          <cell r="K46">
-            <v>20</v>
-          </cell>
-          <cell r="L46">
-            <v>4.5802469262926335</v>
-          </cell>
-          <cell r="M46">
-            <v>3</v>
-          </cell>
-          <cell r="N46">
-            <v>1.5915386470871982</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="J47">
-            <v>38</v>
-          </cell>
-          <cell r="K47">
-            <v>20</v>
-          </cell>
-          <cell r="L47">
-            <v>6.448508161718868</v>
-          </cell>
-          <cell r="M47">
-            <v>0</v>
-          </cell>
-          <cell r="N47">
-            <v>2.1713421733874259</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="J48">
-            <v>39</v>
-          </cell>
-          <cell r="K48">
-            <v>22</v>
-          </cell>
-          <cell r="L48">
-            <v>8.9818661420911141</v>
-          </cell>
-          <cell r="M48">
-            <v>2</v>
-          </cell>
-          <cell r="N48">
-            <v>2.9281349763461963</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="J49">
-            <v>40</v>
-          </cell>
-          <cell r="K49">
-            <v>22</v>
-          </cell>
-          <cell r="L49">
-            <v>12.377431821813451</v>
-          </cell>
-          <cell r="M49">
-            <v>0</v>
-          </cell>
-          <cell r="N49">
-            <v>3.9030639118635748</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="J50">
-            <v>41</v>
-          </cell>
-          <cell r="K50">
-            <v>26</v>
-          </cell>
-          <cell r="L50">
-            <v>16.876103740944735</v>
-          </cell>
-          <cell r="M50">
-            <v>4</v>
-          </cell>
-          <cell r="N50">
-            <v>5.1424725171084589</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="J51">
-            <v>42</v>
-          </cell>
-          <cell r="K51">
-            <v>32</v>
-          </cell>
-          <cell r="L51">
-            <v>22.767430674252221</v>
-          </cell>
-          <cell r="M51">
-            <v>6</v>
-          </cell>
-          <cell r="N51">
-            <v>6.6971502422026958</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="J52">
-            <v>43</v>
-          </cell>
-          <cell r="K52">
-            <v>34</v>
-          </cell>
-          <cell r="L52">
-            <v>30.393461273357207</v>
-          </cell>
-          <cell r="M52">
-            <v>2</v>
-          </cell>
-          <cell r="N52">
-            <v>8.6210437766717849</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="J53">
-            <v>44</v>
-          </cell>
-          <cell r="K53">
-            <v>38</v>
-          </cell>
-          <cell r="L53">
-            <v>40.151006693395779</v>
-          </cell>
-          <cell r="M53">
-            <v>4</v>
-          </cell>
-          <cell r="N53">
-            <v>10.969362909010618</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="J54">
-            <v>45</v>
-          </cell>
-          <cell r="K54">
-            <v>48</v>
-          </cell>
-          <cell r="L54">
-            <v>52.49169091549048</v>
-          </cell>
-          <cell r="M54">
-            <v>10</v>
-          </cell>
-          <cell r="N54">
-            <v>13.796048272660265</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="J55">
-            <v>46</v>
-          </cell>
-          <cell r="K55">
-            <v>73</v>
-          </cell>
-          <cell r="L55">
-            <v>67.919154108796832</v>
-          </cell>
-          <cell r="M55">
-            <v>25</v>
-          </cell>
-          <cell r="N55">
-            <v>17.150617124182173</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="J56">
-            <v>47</v>
-          </cell>
-          <cell r="K56">
-            <v>94</v>
-          </cell>
-          <cell r="L56">
-            <v>86.982820130077087</v>
-          </cell>
-          <cell r="M56">
-            <v>21</v>
-          </cell>
-          <cell r="N56">
-            <v>21.074464307761716</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="J57">
-            <v>48</v>
-          </cell>
-          <cell r="K57">
-            <v>112</v>
-          </cell>
-          <cell r="L57">
-            <v>110.26775067017735</v>
-          </cell>
-          <cell r="M57">
-            <v>18</v>
-          </cell>
-          <cell r="N57">
-            <v>25.596765069485865</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="J58">
-            <v>49</v>
-          </cell>
-          <cell r="K58">
-            <v>131</v>
-          </cell>
-          <cell r="L58">
-            <v>138.38029139015032</v>
-          </cell>
-          <cell r="M58">
-            <v>19</v>
-          </cell>
-          <cell r="N58">
-            <v>30.730198585605713</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="J59">
-            <v>50</v>
-          </cell>
-          <cell r="K59">
-            <v>164</v>
-          </cell>
-          <cell r="L59">
-            <v>171.92946865096724</v>
-          </cell>
-          <cell r="M59">
-            <v>33</v>
-          </cell>
-          <cell r="N59">
-            <v>36.466778326572914</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="J60">
-            <v>51</v>
-          </cell>
-          <cell r="K60">
-            <v>203</v>
-          </cell>
-          <cell r="L60">
-            <v>211.50440983105358</v>
-          </cell>
-          <cell r="M60">
-            <v>39</v>
-          </cell>
-          <cell r="N60">
-            <v>42.774128850263487</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="J61">
-            <v>52</v>
-          </cell>
-          <cell r="K61">
-            <v>253</v>
-          </cell>
-          <cell r="L61">
-            <v>257.64841738271116</v>
-          </cell>
-          <cell r="M61">
-            <v>50</v>
-          </cell>
-          <cell r="N61">
-            <v>49.592579201247744</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="J62">
-            <v>53</v>
-          </cell>
-          <cell r="K62">
-            <v>312</v>
-          </cell>
-          <cell r="L62">
-            <v>310.83069960094582</v>
-          </cell>
-          <cell r="M62">
-            <v>59</v>
-          </cell>
-          <cell r="N62">
-            <v>56.83344262866548</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="J63">
-            <v>54</v>
-          </cell>
-          <cell r="K63">
-            <v>371</v>
-          </cell>
-          <cell r="L63">
-            <v>371.41711532518758</v>
-          </cell>
-          <cell r="M63">
-            <v>59</v>
-          </cell>
-          <cell r="N63">
-            <v>64.378814921590845</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="J64">
-            <v>55</v>
-          </cell>
-          <cell r="K64">
-            <v>424</v>
-          </cell>
-          <cell r="L64">
-            <v>439.64158697702311</v>
-          </cell>
-          <cell r="M64">
-            <v>53</v>
-          </cell>
-          <cell r="N64">
-            <v>72.083146892755664</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="J65">
-            <v>56</v>
-          </cell>
-          <cell r="K65">
-            <v>469</v>
-          </cell>
-          <cell r="L65">
-            <v>515.58003772272468</v>
-          </cell>
-          <cell r="M65">
-            <v>45</v>
-          </cell>
-          <cell r="N65">
-            <v>79.776732459093978</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="J66">
-            <v>57</v>
-          </cell>
-          <cell r="K66">
-            <v>539</v>
-          </cell>
-          <cell r="L66">
-            <v>599.12877988237517</v>
-          </cell>
-          <cell r="M66">
-            <v>70</v>
-          </cell>
-          <cell r="N66">
-            <v>87.271109310240831</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="J67">
-            <v>58</v>
-          </cell>
-          <cell r="K67">
-            <v>632</v>
-          </cell>
-          <cell r="L67">
-            <v>689.98919807076402</v>
-          </cell>
-          <cell r="M67">
-            <v>93</v>
-          </cell>
-          <cell r="N67">
-            <v>94.366205970596866</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="J68">
-            <v>59</v>
-          </cell>
-          <cell r="K68">
-            <v>755</v>
-          </cell>
-          <cell r="L68">
-            <v>787.66032068419838</v>
-          </cell>
-          <cell r="M68">
-            <v>123</v>
-          </cell>
-          <cell r="N68">
-            <v>100.85890259466572</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="J69">
-            <v>60</v>
-          </cell>
-          <cell r="K69">
-            <v>901</v>
-          </cell>
-          <cell r="L69">
-            <v>891.4404626934587</v>
-          </cell>
-          <cell r="M69">
-            <v>146</v>
-          </cell>
-          <cell r="N69">
-            <v>106.55252076213441</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="J70">
-            <v>61</v>
-          </cell>
-          <cell r="K70">
-            <v>1018</v>
-          </cell>
-          <cell r="L70">
-            <v>1000.4385746504022</v>
-          </cell>
-          <cell r="M70">
-            <v>117</v>
-          </cell>
-          <cell r="N70">
-            <v>111.26663767414522</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="J71">
-            <v>62</v>
-          </cell>
-          <cell r="K71">
-            <v>1119</v>
-          </cell>
-          <cell r="L71">
-            <v>1113.5952876687618</v>
-          </cell>
-          <cell r="M71">
-            <v>101</v>
-          </cell>
-          <cell r="N71">
-            <v>114.84654813071501</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="J72">
-            <v>63</v>
-          </cell>
-          <cell r="K72">
-            <v>1205</v>
-          </cell>
-          <cell r="L72">
-            <v>1229.7129558066104</v>
-          </cell>
-          <cell r="M72">
-            <v>86</v>
-          </cell>
-          <cell r="N72">
-            <v>117.17168471853479</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="J73">
-            <v>64</v>
-          </cell>
-          <cell r="K73">
-            <v>1336</v>
-          </cell>
-          <cell r="L73">
-            <v>1347.4933279201198</v>
-          </cell>
-          <cell r="M73">
-            <v>131</v>
-          </cell>
-          <cell r="N73">
-            <v>118.16235779485677</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="J74">
-            <v>65</v>
-          </cell>
-          <cell r="K74">
-            <v>1516</v>
-          </cell>
-          <cell r="L74">
-            <v>1465.5808943101074</v>
-          </cell>
-          <cell r="M74">
-            <v>180</v>
-          </cell>
-          <cell r="N74">
-            <v>117.78428992992504</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="J75">
-            <v>66</v>
-          </cell>
-          <cell r="K75">
-            <v>1643</v>
-          </cell>
-          <cell r="L75">
-            <v>1582.6095071047962</v>
-          </cell>
-          <cell r="M75">
-            <v>127</v>
-          </cell>
-          <cell r="N75">
-            <v>116.05058497779378</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="J76">
-            <v>67</v>
-          </cell>
-          <cell r="K76">
-            <v>1764</v>
-          </cell>
-          <cell r="L76">
-            <v>1697.2496122816597</v>
-          </cell>
-          <cell r="M76">
-            <v>121</v>
-          </cell>
-          <cell r="N76">
-            <v>113.02097402429095</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="J77">
-            <v>68</v>
-          </cell>
-          <cell r="K77">
-            <v>1869</v>
-          </cell>
-          <cell r="L77">
-            <v>1808.2533821877885</v>
-          </cell>
-          <cell r="M77">
-            <v>105</v>
-          </cell>
-          <cell r="N77">
-            <v>108.79839872666938</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="J78">
-            <v>69</v>
-          </cell>
-          <cell r="K78">
-            <v>1957</v>
-          </cell>
-          <cell r="L78">
-            <v>1914.4952054085763</v>
-          </cell>
-          <cell r="M78">
-            <v>88</v>
-          </cell>
-          <cell r="N78">
-            <v>103.52320460520973</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="J79">
-            <v>70</v>
-          </cell>
-          <cell r="K79">
-            <v>2058</v>
-          </cell>
-          <cell r="L79">
-            <v>2015.0053586426518</v>
-          </cell>
-          <cell r="M79">
-            <v>101</v>
-          </cell>
-          <cell r="N79">
-            <v>97.365401044192836</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="J80">
-            <v>71</v>
-          </cell>
-          <cell r="K80">
-            <v>2138</v>
-          </cell>
-          <cell r="L80">
-            <v>2108.9952155463297</v>
-          </cell>
-          <cell r="M80">
-            <v>80</v>
-          </cell>
-          <cell r="N80">
-            <v>90.515582944166269</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="J81">
-            <v>72</v>
-          </cell>
-          <cell r="K81">
-            <v>2202</v>
-          </cell>
-          <cell r="L81">
-            <v>2195.8729874989494</v>
-          </cell>
-          <cell r="M81">
-            <v>64</v>
-          </cell>
-          <cell r="N81">
-            <v>83.175188618260634</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="J82">
-            <v>73</v>
-          </cell>
-          <cell r="K82">
-            <v>2264</v>
-          </cell>
-          <cell r="L82">
-            <v>2275.2496790052182</v>
-          </cell>
-          <cell r="M82">
-            <v>62</v>
-          </cell>
-          <cell r="N82">
-            <v>75.546784128382228</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="J83">
-            <v>74</v>
-          </cell>
-          <cell r="K83">
-            <v>2327</v>
-          </cell>
-          <cell r="L83">
-            <v>2346.9356122753697</v>
-          </cell>
-          <cell r="M83">
-            <v>63</v>
-          </cell>
-          <cell r="N83">
-            <v>67.825017682388903</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="J84">
-            <v>75</v>
-          </cell>
-          <cell r="K84">
-            <v>2374</v>
-          </cell>
-          <cell r="L84">
-            <v>2410.9284730333179</v>
-          </cell>
-          <cell r="M84">
-            <v>47</v>
-          </cell>
-          <cell r="N84">
-            <v>60.188787592673883</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="J85">
-            <v>76</v>
-          </cell>
-          <cell r="K85">
-            <v>2414</v>
-          </cell>
-          <cell r="L85">
-            <v>2467.3943058479936</v>
-          </cell>
-          <cell r="M85">
-            <v>40</v>
-          </cell>
-          <cell r="N85">
-            <v>52.795027544599733</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="J86">
-            <v>77</v>
-          </cell>
-          <cell r="K86">
-            <v>2460</v>
-          </cell>
-          <cell r="L86">
-            <v>2516.6432110238648</v>
-          </cell>
-          <cell r="M86">
-            <v>46</v>
-          </cell>
-          <cell r="N86">
-            <v>45.774350667239986</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="J87">
-            <v>78</v>
-          </cell>
-          <cell r="K87">
-            <v>2513</v>
-          </cell>
-          <cell r="L87">
-            <v>2559.1016528501887</v>
-          </cell>
-          <cell r="M87">
-            <v>53</v>
-          </cell>
-          <cell r="N87">
-            <v>39.228627154972287</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="J88">
-            <v>79</v>
-          </cell>
-          <cell r="K88">
-            <v>2540</v>
-          </cell>
-          <cell r="L88">
-            <v>2595.2832848409407</v>
-          </cell>
-          <cell r="M88">
-            <v>27</v>
-          </cell>
-          <cell r="N88">
-            <v>33.230415632945153</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="J89">
-            <v>80</v>
-          </cell>
-          <cell r="K89">
-            <v>2568</v>
-          </cell>
-          <cell r="L89">
-            <v>2625.7600507656675</v>
-          </cell>
-          <cell r="M89">
-            <v>28</v>
-          </cell>
-          <cell r="N89">
-            <v>27.824039598695073</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="J90">
-            <v>81</v>
-          </cell>
-          <cell r="K90">
-            <v>2599</v>
-          </cell>
-          <cell r="L90">
-            <v>2651.1350614271391</v>
-          </cell>
-          <cell r="M90">
-            <v>31</v>
-          </cell>
-          <cell r="N90">
-            <v>23.028006223447417</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="J91">
-            <v>82</v>
-          </cell>
-          <cell r="K91">
-            <v>2631</v>
-          </cell>
-          <cell r="L91">
-            <v>2672.0184136161929</v>
-          </cell>
-          <cell r="M91">
-            <v>32</v>
-          </cell>
-          <cell r="N91">
-            <v>18.838409777493677</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="J92">
-            <v>83</v>
-          </cell>
-          <cell r="K92">
-            <v>2651</v>
-          </cell>
-          <cell r="L92">
-            <v>2689.0067486152598</v>
-          </cell>
-          <cell r="M92">
-            <v>20</v>
-          </cell>
-          <cell r="N92">
-            <v>15.232945451434734</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="J93">
-            <v>84</v>
-          </cell>
-          <cell r="K93">
-            <v>2664</v>
-          </cell>
-          <cell r="L93">
-            <v>2702.6669796071496</v>
-          </cell>
-          <cell r="M93">
-            <v>13</v>
-          </cell>
-          <cell r="N93">
-            <v>12.17517690514412</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="J94">
-            <v>85</v>
-          </cell>
-          <cell r="K94">
-            <v>2678</v>
-          </cell>
-          <cell r="L94">
-            <v>2713.5242809556134</v>
-          </cell>
-          <cell r="M94">
-            <v>14</v>
-          </cell>
-          <cell r="N94">
-            <v>9.618745179483966</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="J95">
-            <v>86</v>
-          </cell>
-          <cell r="K95">
-            <v>2693</v>
-          </cell>
-          <cell r="L95">
-            <v>2722.0541499550382</v>
-          </cell>
-          <cell r="M95">
-            <v>15</v>
-          </cell>
-          <cell r="N95">
-            <v>7.5112688134211583</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="J96">
-            <v>87</v>
-          </cell>
-          <cell r="K96">
-            <v>2705</v>
-          </cell>
-          <cell r="L96">
-            <v>2728.6781366282958</v>
-          </cell>
-          <cell r="M96">
-            <v>12</v>
-          </cell>
-          <cell r="N96">
-            <v>5.7977560270684476</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="J97">
-            <v>88</v>
-          </cell>
-          <cell r="K97">
-            <v>2718</v>
-          </cell>
-          <cell r="L97">
-            <v>2733.7626940518348</v>
-          </cell>
-          <cell r="M97">
-            <v>13</v>
-          </cell>
-          <cell r="N97">
-            <v>4.4234213855328868</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="J98">
-            <v>89</v>
-          </cell>
-          <cell r="K98">
-            <v>2731</v>
-          </cell>
-          <cell r="L98">
-            <v>2737.6205275454295</v>
-          </cell>
-          <cell r="M98">
-            <v>13</v>
-          </cell>
-          <cell r="N98">
-            <v>3.3358647672445851</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="J99">
-            <v>90</v>
-          </cell>
-          <cell r="K99">
-            <v>2742</v>
-          </cell>
-          <cell r="L99">
-            <v>2740.5138072251812</v>
-          </cell>
-          <cell r="M99">
-            <v>11</v>
-          </cell>
-          <cell r="N99">
-            <v>2.4866250570231077</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="J100">
-            <v>91</v>
-          </cell>
-          <cell r="K100">
-            <v>2749</v>
-          </cell>
-          <cell r="L100">
-            <v>2742.6586426185399</v>
-          </cell>
-          <cell r="M100">
-            <v>7</v>
-          </cell>
-          <cell r="N100">
-            <v>1.8321622080861504</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="J101">
-            <v>92</v>
-          </cell>
-          <cell r="K101">
-            <v>2757</v>
-          </cell>
-          <cell r="L101">
-            <v>2744.2302864409353</v>
-          </cell>
-          <cell r="M101">
-            <v>8</v>
-          </cell>
-          <cell r="N101">
-            <v>1.3343485309526018</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="J102">
-            <v>93</v>
-          </cell>
-          <cell r="K102">
-            <v>2765</v>
-          </cell>
-          <cell r="L102">
-            <v>2745.3686235707301</v>
-          </cell>
-          <cell r="M102">
-            <v>8</v>
-          </cell>
-          <cell r="N102">
-            <v>0.9605641830781414</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="J103">
-            <v>94</v>
-          </cell>
-          <cell r="K103">
-            <v>2776</v>
-          </cell>
-          <cell r="L103">
-            <v>2746.1835985611342</v>
-          </cell>
-          <cell r="M103">
-            <v>11</v>
-          </cell>
-          <cell r="N103">
-            <v>0.68349484268662586</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="J104">
-            <v>95</v>
-          </cell>
-          <cell r="K104">
-            <v>2784</v>
-          </cell>
-          <cell r="L104">
-            <v>2746.7603308511334</v>
-          </cell>
-          <cell r="M104">
-            <v>8</v>
-          </cell>
-          <cell r="N104">
-            <v>0.48072404014795056</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="J105">
-            <v>96</v>
-          </cell>
-          <cell r="K105">
-            <v>2793</v>
-          </cell>
-          <cell r="L105">
-            <v>2747.1637540392703</v>
-          </cell>
-          <cell r="M105">
-            <v>9</v>
-          </cell>
-          <cell r="N105">
-            <v>0.33420133927457946</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="J106">
-            <v>97</v>
-          </cell>
-          <cell r="K106">
-            <v>2796</v>
-          </cell>
-          <cell r="L106">
-            <v>2747.4426897055041</v>
-          </cell>
-          <cell r="M106">
-            <v>3</v>
-          </cell>
-          <cell r="N106">
-            <v>0.22965308135261789</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="J107">
-            <v>98</v>
-          </cell>
-          <cell r="K107">
-            <v>2802</v>
-          </cell>
-          <cell r="L107">
-            <v>2747.6333252332174</v>
-          </cell>
-          <cell r="M107">
-            <v>6</v>
-          </cell>
-          <cell r="N107">
-            <v>0.15598689519193065</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="J108">
-            <v>99</v>
-          </cell>
-          <cell r="K108">
-            <v>2814</v>
-          </cell>
-          <cell r="L108">
-            <v>2747.7621087352263</v>
-          </cell>
-          <cell r="M108">
-            <v>12</v>
-          </cell>
-          <cell r="N108">
-            <v>0.10472628472098479</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="J109">
-            <v>100</v>
-          </cell>
-          <cell r="K109">
-            <v>2833</v>
-          </cell>
-          <cell r="L109">
-            <v>2747.848103738238</v>
-          </cell>
-          <cell r="M109">
-            <v>19</v>
-          </cell>
-          <cell r="N109">
-            <v>6.9498435090771346E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -20698,8 +18990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AK47" sqref="AK47"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20708,10 +19000,11 @@
     <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" customWidth="1"/>
     <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" customWidth="1"/>
     <col min="18" max="18" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20740,8 +19033,14 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
       <c r="F2" s="1">
         <v>82.468337446732463</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
       </c>
       <c r="N2" s="1">
         <v>88.085486419152488</v>
@@ -20772,7 +19071,7 @@
         <f>SUMXMY2(C23:C70,F23:F70)</f>
         <v>6678279035.7009583</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="22">
         <v>7.7799999999999996E-3</v>
       </c>
       <c r="N4" s="2">
@@ -20846,8 +19145,8 @@
       <c r="C9" s="6">
         <v>53</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="7">
         <f t="shared" ref="F9:F22" si="0">F$1*_xlfn.NORM.DIST($B9,F$2,F$3,TRUE)</f>
         <v>37.788518023889708</v>
@@ -20859,12 +19158,12 @@
       <c r="H9" s="6">
         <v>18</v>
       </c>
-      <c r="I9" s="12">
-        <f t="shared" ref="I9:I22" si="2">+C9*(R9/$I$4)</f>
+      <c r="I9" s="11">
+        <f t="shared" ref="I9:I40" si="2">+C9*(R9/$I$4)</f>
         <v>0</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="16"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="5">
         <v>36</v>
       </c>
@@ -20893,8 +19192,8 @@
       <c r="C10" s="6">
         <v>53</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>53.810576734824281</v>
@@ -20904,12 +19203,12 @@
         <v>18.834174595148973</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="16"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="5">
         <v>37</v>
       </c>
@@ -20938,8 +19237,8 @@
       <c r="C11" s="6">
         <v>59</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>76.098367419772146</v>
@@ -20951,12 +19250,12 @@
       <c r="H11" s="6">
         <v>6</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="16"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="5">
         <v>38</v>
       </c>
@@ -20985,8 +19284,8 @@
       <c r="C12" s="6">
         <v>60</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>106.87796947080966</v>
@@ -20998,12 +19297,12 @@
       <c r="H12" s="6">
         <v>1</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="16"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="5">
         <v>39</v>
       </c>
@@ -21032,8 +19331,8 @@
       <c r="C13" s="6">
         <v>66</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>149.07736786560835</v>
@@ -21045,12 +19344,12 @@
       <c r="H13" s="6">
         <v>6</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="16"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="5">
         <v>40</v>
       </c>
@@ -21079,8 +19378,8 @@
       <c r="C14" s="6">
         <v>69</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>206.51503573523266</v>
@@ -21092,12 +19391,12 @@
       <c r="H14" s="6">
         <v>3</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="16"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="5">
         <v>41</v>
       </c>
@@ -21126,8 +19425,8 @@
       <c r="C15" s="6">
         <v>89</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>284.12806174788125</v>
@@ -21139,12 +19438,12 @@
       <c r="H15" s="6">
         <v>20</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="16"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="5">
         <v>42</v>
       </c>
@@ -21173,8 +19472,8 @@
       <c r="C16" s="6">
         <v>103</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>388.24459874407842</v>
@@ -21186,12 +19485,12 @@
       <c r="H16" s="6">
         <v>14</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="16"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="5">
         <v>43</v>
       </c>
@@ -21220,8 +19519,8 @@
       <c r="C17" s="6">
         <v>125</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>526.90488541245475</v>
@@ -21233,12 +19532,12 @@
       <c r="H17" s="6">
         <v>22</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="16"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="5">
         <v>44</v>
       </c>
@@ -21267,8 +19566,8 @@
       <c r="C18" s="6">
         <v>159</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
         <v>710.23413205779627</v>
@@ -21280,12 +19579,12 @@
       <c r="H18" s="6">
         <v>34</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="16"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="5">
         <v>45</v>
       </c>
@@ -21314,8 +19613,8 @@
       <c r="C19" s="6">
         <v>233</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
         <v>950.86907675060502</v>
@@ -21327,12 +19626,12 @@
       <c r="H19" s="6">
         <v>74</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="16"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="5">
         <v>46</v>
       </c>
@@ -21361,8 +19660,8 @@
       <c r="C20" s="6">
         <v>338</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
         <v>1264.4379305449538</v>
@@ -21374,12 +19673,12 @@
       <c r="H20" s="6">
         <v>105</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="16"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="5">
         <v>47</v>
       </c>
@@ -21408,8 +19707,8 @@
       <c r="C21" s="6">
         <v>433</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
         <v>1670.0906799679647</v>
@@ -21421,12 +19720,12 @@
       <c r="H21" s="6">
         <v>95</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="16"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="5">
         <v>48</v>
       </c>
@@ -21455,8 +19754,8 @@
       <c r="C22" s="6">
         <v>554</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
         <v>2191.0732715151407</v>
@@ -21468,12 +19767,12 @@
       <c r="H22" s="6">
         <v>121</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="16"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="5">
         <v>49</v>
       </c>
@@ -21515,15 +19814,15 @@
       <c r="H23" s="6">
         <v>200</v>
       </c>
-      <c r="I23" s="12">
-        <f>+C23*(R23/$I$4)</f>
+      <c r="I23" s="11">
+        <f t="shared" si="2"/>
         <v>3341.9023136246788</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="11">
         <f t="shared" ref="J23:J34" si="5">+F23*(S23/$I$4)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <f t="shared" ref="K23:K30" si="6">+I23-J23</f>
         <v>3341.9023136246788</v>
       </c>
@@ -21575,15 +19874,15 @@
       <c r="H24" s="6">
         <v>271</v>
       </c>
-      <c r="I24" s="12">
-        <f t="shared" ref="I24:I73" si="9">+C24*(R24/$I$4)</f>
+      <c r="I24" s="11">
+        <f t="shared" si="2"/>
         <v>3598.9717223650387</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <f t="shared" si="6"/>
         <v>3598.9717223650387</v>
       </c>
@@ -21594,21 +19893,21 @@
         <v>28</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" ref="N24:N87" si="10">N$1*_xlfn.NORM.DIST($L24,N$2,N$3,TRUE)</f>
+        <f t="shared" ref="N24:N87" si="9">N$1*_xlfn.NORM.DIST($L24,N$2,N$3,TRUE)</f>
         <v>12.044950005672485</v>
       </c>
       <c r="O24" s="8">
         <v>2</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" ref="P24:P87" si="11">N$1*_xlfn.NORM.DIST($L24,N$2,N$3,FALSE)</f>
+        <f t="shared" ref="P24:P87" si="10">N$1*_xlfn.NORM.DIST($L24,N$2,N$3,FALSE)</f>
         <v>4.4148445603276985</v>
       </c>
       <c r="Q24" s="5">
         <v>51</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" ref="R24:R73" si="12">+M24/C24</f>
+        <f t="shared" ref="R24:R73" si="11">+M24/C24</f>
         <v>2.7317073170731707E-2</v>
       </c>
     </row>
@@ -21622,7 +19921,7 @@
       <c r="C25" s="6">
         <v>1312</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="6"/>
       <c r="F25" s="7">
         <f t="shared" si="7"/>
@@ -21635,15 +19934,15 @@
       <c r="H25" s="6">
         <v>287</v>
       </c>
-      <c r="I25" s="12">
-        <f t="shared" si="9"/>
+      <c r="I25" s="11">
+        <f t="shared" si="2"/>
         <v>3856.0411311053986</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <f t="shared" si="6"/>
         <v>3856.0411311053986</v>
       </c>
@@ -21654,21 +19953,21 @@
         <v>30</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17.301879658657533</v>
       </c>
       <c r="O25" s="8">
         <v>2</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6.190820482553562</v>
       </c>
       <c r="Q25" s="5">
         <v>52</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.2865853658536585E-2</v>
       </c>
     </row>
@@ -21682,7 +19981,7 @@
       <c r="C26" s="6">
         <v>1663</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="6"/>
       <c r="F26" s="7">
         <f t="shared" si="7"/>
@@ -21695,15 +19994,15 @@
       <c r="H26" s="6">
         <v>351</v>
       </c>
-      <c r="I26" s="12">
-        <f t="shared" si="9"/>
+      <c r="I26" s="11">
+        <f t="shared" si="2"/>
         <v>5141.3881748071981</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <f t="shared" si="6"/>
         <v>5141.3881748071981</v>
       </c>
@@ -21714,21 +20013,21 @@
         <v>40</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>24.637670835313369</v>
       </c>
       <c r="O26" s="8">
         <v>10</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8.6013691667024794</v>
       </c>
       <c r="Q26" s="5">
         <v>53</v>
       </c>
       <c r="R26" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.4052916416115455E-2</v>
       </c>
     </row>
@@ -21742,12 +20041,12 @@
       <c r="C27" s="6">
         <v>2174</v>
       </c>
-      <c r="D27" s="15">
-        <f t="shared" ref="D27:D28" si="13">+C9</f>
+      <c r="D27" s="14">
+        <f t="shared" ref="D27:D28" si="12">+C9</f>
         <v>53</v>
       </c>
-      <c r="E27" s="15">
-        <f t="shared" ref="E27:E40" si="14">+C27-D27</f>
+      <c r="E27" s="14">
+        <f t="shared" ref="E27:E40" si="13">+C27-D27</f>
         <v>2121</v>
       </c>
       <c r="F27" s="7">
@@ -21761,15 +20060,15 @@
       <c r="H27" s="6">
         <v>511</v>
       </c>
-      <c r="I27" s="12">
-        <f t="shared" si="9"/>
+      <c r="I27" s="11">
+        <f t="shared" si="2"/>
         <v>6041.1311053984573</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="13">
         <f t="shared" si="6"/>
         <v>6041.1311053984573</v>
       </c>
@@ -21780,21 +20079,21 @@
         <v>47</v>
       </c>
       <c r="N27" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>34.780320184976269</v>
       </c>
       <c r="O27" s="8">
         <v>7</v>
       </c>
       <c r="P27" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>11.840595591447489</v>
       </c>
       <c r="Q27" s="5">
         <v>54</v>
       </c>
       <c r="R27" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.1619135234590615E-2</v>
       </c>
     </row>
@@ -21808,12 +20107,12 @@
       <c r="C28" s="6">
         <v>2951</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
+        <f t="shared" si="12"/>
+        <v>53</v>
+      </c>
+      <c r="E28" s="14">
         <f t="shared" si="13"/>
-        <v>53</v>
-      </c>
-      <c r="E28" s="15">
-        <f t="shared" si="14"/>
         <v>2898</v>
       </c>
       <c r="F28" s="7">
@@ -21827,15 +20126,15 @@
       <c r="H28" s="6">
         <v>777</v>
       </c>
-      <c r="I28" s="12">
-        <f t="shared" si="9"/>
+      <c r="I28" s="11">
+        <f t="shared" si="2"/>
         <v>7326.4781491002568</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <f t="shared" si="6"/>
         <v>7326.4781491002568</v>
       </c>
@@ -21846,21 +20145,21 @@
         <v>57</v>
       </c>
       <c r="N28" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>48.674903278394879</v>
       </c>
       <c r="O28" s="8">
         <v>10</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.149760730514597</v>
       </c>
       <c r="Q28" s="5">
         <v>55</v>
       </c>
       <c r="R28" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.9315486275838699E-2</v>
       </c>
     </row>
@@ -21874,12 +20173,12 @@
       <c r="C29" s="6">
         <v>3774</v>
       </c>
-      <c r="D29" s="15">
-        <f t="shared" ref="D29:D40" si="15">+C11</f>
+      <c r="D29" s="14">
+        <f t="shared" ref="D29:D40" si="14">+C11</f>
         <v>59</v>
       </c>
-      <c r="E29" s="15">
-        <f t="shared" si="14"/>
+      <c r="E29" s="14">
+        <f t="shared" si="13"/>
         <v>3715</v>
       </c>
       <c r="F29" s="7">
@@ -21893,15 +20192,15 @@
       <c r="H29" s="6">
         <v>823</v>
       </c>
-      <c r="I29" s="12">
-        <f t="shared" si="9"/>
+      <c r="I29" s="11">
+        <f t="shared" si="2"/>
         <v>8868.8946015424171</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <f t="shared" si="6"/>
         <v>8868.8946015424171</v>
       </c>
@@ -21912,21 +20211,21 @@
         <v>69</v>
       </c>
       <c r="N29" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>67.534364766790077</v>
       </c>
       <c r="O29" s="8">
         <v>12</v>
       </c>
       <c r="P29" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>21.824546089635529</v>
       </c>
       <c r="Q29" s="5">
         <v>56</v>
       </c>
       <c r="R29" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.8282988871224166E-2</v>
       </c>
     </row>
@@ -21940,12 +20239,12 @@
       <c r="C30" s="6">
         <v>4661</v>
       </c>
-      <c r="D30" s="15">
-        <f t="shared" si="15"/>
+      <c r="D30" s="14">
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="E30" s="15">
-        <f t="shared" si="14"/>
+      <c r="E30" s="14">
+        <f t="shared" si="13"/>
         <v>4601</v>
       </c>
       <c r="F30" s="7">
@@ -21959,15 +20258,15 @@
       <c r="H30" s="6">
         <v>887</v>
       </c>
-      <c r="I30" s="12">
-        <f t="shared" si="9"/>
+      <c r="I30" s="11">
+        <f t="shared" si="2"/>
         <v>10925.449871465296</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="13">
         <f t="shared" si="6"/>
         <v>10925.449871465296</v>
       </c>
@@ -21978,21 +20277,21 @@
         <v>85</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>92.897486993132915</v>
       </c>
       <c r="O30" s="8">
         <v>16</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>29.222066926952269</v>
       </c>
       <c r="Q30" s="5">
         <v>57</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.8236429950654366E-2</v>
       </c>
     </row>
@@ -22006,12 +20305,12 @@
       <c r="C31" s="6">
         <v>6427</v>
       </c>
-      <c r="D31" s="15">
-        <f t="shared" si="15"/>
+      <c r="D31" s="14">
+        <f t="shared" si="14"/>
         <v>66</v>
       </c>
-      <c r="E31" s="15">
-        <f t="shared" si="14"/>
+      <c r="E31" s="14">
+        <f t="shared" si="13"/>
         <v>6361</v>
       </c>
       <c r="F31" s="7">
@@ -22025,16 +20324,16 @@
       <c r="H31" s="6">
         <v>1766</v>
       </c>
-      <c r="I31" s="12">
-        <f t="shared" si="9"/>
+      <c r="I31" s="11">
+        <f t="shared" si="2"/>
         <v>13881.748071979433</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K31" s="14">
-        <f t="shared" ref="K31:K34" si="16">+I31-J31</f>
+      <c r="K31" s="13">
+        <f t="shared" ref="K31:K34" si="15">+I31-J31</f>
         <v>13881.748071979433</v>
       </c>
       <c r="L31" s="5">
@@ -22044,21 +20343,21 @@
         <v>108</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>126.69352591804407</v>
       </c>
       <c r="O31" s="8">
         <v>23</v>
       </c>
       <c r="P31" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>38.767092075999358</v>
       </c>
       <c r="Q31" s="5">
         <v>58</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.6804107670763964E-2</v>
       </c>
     </row>
@@ -22072,12 +20371,12 @@
       <c r="C32" s="6">
         <v>9415</v>
       </c>
-      <c r="D32" s="15">
-        <f t="shared" si="15"/>
+      <c r="D32" s="14">
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
-      <c r="E32" s="15">
-        <f t="shared" si="14"/>
+      <c r="E32" s="14">
+        <f t="shared" si="13"/>
         <v>9346</v>
       </c>
       <c r="F32" s="7">
@@ -22091,16 +20390,16 @@
       <c r="H32" s="6">
         <v>2988</v>
       </c>
-      <c r="I32" s="12">
-        <f t="shared" si="9"/>
+      <c r="I32" s="11">
+        <f t="shared" si="2"/>
         <v>19280.205655526992</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K32" s="14">
-        <f t="shared" si="16"/>
+      <c r="K32" s="13">
+        <f t="shared" si="15"/>
         <v>19280.205655526992</v>
       </c>
       <c r="L32" s="5">
@@ -22110,21 +20409,21 @@
         <v>150</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>171.31239411035935</v>
       </c>
       <c r="O32" s="8">
         <v>42</v>
       </c>
       <c r="P32" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>50.956794922845226</v>
       </c>
       <c r="Q32" s="5">
         <v>59</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.5932023366967606E-2</v>
       </c>
     </row>
@@ -22138,12 +20437,12 @@
       <c r="C33" s="6">
         <v>14250</v>
       </c>
-      <c r="D33" s="15">
-        <f t="shared" si="15"/>
+      <c r="D33" s="14">
+        <f t="shared" si="14"/>
         <v>89</v>
       </c>
-      <c r="E33" s="15">
-        <f t="shared" si="14"/>
+      <c r="E33" s="14">
+        <f t="shared" si="13"/>
         <v>14161</v>
       </c>
       <c r="F33" s="7">
@@ -22157,16 +20456,16 @@
       <c r="H33" s="6">
         <v>4835</v>
       </c>
-      <c r="I33" s="12">
-        <f t="shared" si="9"/>
+      <c r="I33" s="11">
+        <f t="shared" si="2"/>
         <v>19280.205655526996</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K33" s="14">
-        <f t="shared" si="16"/>
+      <c r="K33" s="13">
+        <f t="shared" si="15"/>
         <v>19280.205655526996</v>
       </c>
       <c r="L33" s="5">
@@ -22176,19 +20475,19 @@
         <v>150</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>229.67853237555761</v>
       </c>
       <c r="O33" s="8"/>
       <c r="P33" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>66.36323765031004</v>
       </c>
       <c r="Q33" s="5">
         <v>60</v>
       </c>
       <c r="R33" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.0526315789473684E-2</v>
       </c>
     </row>
@@ -22202,12 +20501,12 @@
       <c r="C34" s="6">
         <v>19624</v>
       </c>
-      <c r="D34" s="15">
-        <f t="shared" si="15"/>
+      <c r="D34" s="14">
+        <f t="shared" si="14"/>
         <v>103</v>
       </c>
-      <c r="E34" s="15">
-        <f t="shared" si="14"/>
+      <c r="E34" s="14">
+        <f t="shared" si="13"/>
         <v>19521</v>
       </c>
       <c r="F34" s="7">
@@ -22221,16 +20520,16 @@
       <c r="H34" s="6">
         <v>5374</v>
       </c>
-      <c r="I34" s="12">
-        <f t="shared" si="9"/>
+      <c r="I34" s="11">
+        <f t="shared" si="2"/>
         <v>33419.023136246789</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="14">
-        <f t="shared" si="16"/>
+      <c r="K34" s="13">
+        <f t="shared" si="15"/>
         <v>33419.023136246789</v>
       </c>
       <c r="L34" s="5">
@@ -22240,21 +20539,21 @@
         <v>260</v>
       </c>
       <c r="N34" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>305.32576275095965</v>
       </c>
       <c r="O34" s="8">
         <v>110</v>
       </c>
       <c r="P34" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>85.632694764796227</v>
       </c>
       <c r="Q34" s="5">
         <v>61</v>
       </c>
       <c r="R34" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.3249082755809213E-2</v>
       </c>
     </row>
@@ -22268,12 +20567,12 @@
       <c r="C35" s="6">
         <v>26747</v>
       </c>
-      <c r="D35" s="15">
-        <f t="shared" si="15"/>
+      <c r="D35" s="14">
+        <f t="shared" si="14"/>
         <v>125</v>
       </c>
-      <c r="E35" s="15">
-        <f t="shared" si="14"/>
+      <c r="E35" s="14">
+        <f t="shared" si="13"/>
         <v>26622</v>
       </c>
       <c r="F35" s="7">
@@ -22287,16 +20586,16 @@
       <c r="H35" s="6">
         <v>7123</v>
       </c>
-      <c r="I35" s="12">
-        <f t="shared" si="9"/>
+      <c r="I35" s="11">
+        <f t="shared" si="2"/>
         <v>43701.799485861186</v>
       </c>
-      <c r="J35" s="14">
-        <f t="shared" ref="J35:J40" si="17">+I17</f>
+      <c r="J35" s="13">
+        <f t="shared" ref="J35:J40" si="16">+I17</f>
         <v>0</v>
       </c>
-      <c r="K35" s="14">
-        <f t="shared" ref="K35:K40" si="18">+I35-J35</f>
+      <c r="K35" s="13">
+        <f t="shared" ref="K35:K40" si="17">+I35-J35</f>
         <v>43701.799485861186</v>
       </c>
       <c r="L35" s="5">
@@ -22306,21 +20605,21 @@
         <v>340</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>402.46949117640179</v>
       </c>
       <c r="O35" s="8">
         <v>80</v>
       </c>
       <c r="P35" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>109.48086997714874</v>
       </c>
       <c r="Q35" s="5">
         <v>62</v>
       </c>
       <c r="R35" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.2711705985718025E-2</v>
       </c>
     </row>
@@ -22334,12 +20633,12 @@
       <c r="C36" s="6">
         <v>35206</v>
       </c>
-      <c r="D36" s="15">
-        <f t="shared" si="15"/>
+      <c r="D36" s="14">
+        <f t="shared" si="14"/>
         <v>159</v>
       </c>
-      <c r="E36" s="15">
-        <f t="shared" si="14"/>
+      <c r="E36" s="14">
+        <f t="shared" si="13"/>
         <v>35047</v>
       </c>
       <c r="F36" s="7">
@@ -22353,16 +20652,16 @@
       <c r="H36" s="6">
         <v>8459</v>
       </c>
-      <c r="I36" s="12">
-        <f t="shared" si="9"/>
+      <c r="I36" s="11">
+        <f t="shared" si="2"/>
         <v>60539.845758354757</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="14">
-        <f t="shared" si="18"/>
         <v>60539.845758354757</v>
       </c>
       <c r="L36" s="5">
@@ -22372,21 +20671,21 @@
         <v>471</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>526.07168175153561</v>
       </c>
       <c r="O36" s="8">
         <v>131</v>
       </c>
       <c r="P36" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>138.68307166214871</v>
       </c>
       <c r="Q36" s="5">
         <v>63</v>
       </c>
       <c r="R36" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.3378401408850764E-2</v>
       </c>
     </row>
@@ -22400,12 +20699,12 @@
       <c r="C37" s="6">
         <v>46442</v>
       </c>
-      <c r="D37" s="15">
-        <f t="shared" si="15"/>
+      <c r="D37" s="14">
+        <f t="shared" si="14"/>
         <v>233</v>
       </c>
-      <c r="E37" s="15">
-        <f t="shared" si="14"/>
+      <c r="E37" s="14">
+        <f t="shared" si="13"/>
         <v>46209</v>
       </c>
       <c r="F37" s="7">
@@ -22419,16 +20718,16 @@
       <c r="H37" s="6">
         <v>11236</v>
       </c>
-      <c r="I37" s="12">
-        <f t="shared" si="9"/>
+      <c r="I37" s="11">
+        <f t="shared" si="2"/>
         <v>75835.475578406171</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="14">
-        <f t="shared" si="18"/>
         <v>75835.475578406171</v>
       </c>
       <c r="L37" s="5">
@@ -22438,21 +20737,21 @@
         <v>590</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>681.8931284884676</v>
       </c>
       <c r="O37" s="8">
         <v>119</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>174.05850462855798</v>
       </c>
       <c r="Q37" s="5">
         <v>64</v>
       </c>
       <c r="R37" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.2704017914818483E-2</v>
       </c>
     </row>
@@ -22466,12 +20765,12 @@
       <c r="C38" s="6">
         <v>55231</v>
       </c>
-      <c r="D38" s="15">
-        <f t="shared" si="15"/>
+      <c r="D38" s="14">
+        <f t="shared" si="14"/>
         <v>338</v>
       </c>
-      <c r="E38" s="15">
-        <f t="shared" si="14"/>
+      <c r="E38" s="14">
+        <f t="shared" si="13"/>
         <v>54893</v>
       </c>
       <c r="F38" s="7">
@@ -22485,16 +20784,16 @@
       <c r="H38" s="6">
         <v>8789</v>
       </c>
-      <c r="I38" s="12">
-        <f t="shared" si="9"/>
+      <c r="I38" s="11">
+        <f t="shared" si="2"/>
         <v>102956.29820051415</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="14">
-        <f t="shared" si="18"/>
         <v>102956.29820051415</v>
       </c>
       <c r="L38" s="5">
@@ -22504,21 +20803,21 @@
         <v>801</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>876.52679420493996</v>
       </c>
       <c r="O38" s="8">
         <v>211</v>
       </c>
       <c r="P38" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>216.44802506316631</v>
       </c>
       <c r="Q38" s="5">
         <v>65</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.4502724918976662E-2</v>
       </c>
     </row>
@@ -22532,12 +20831,12 @@
       <c r="C39" s="6">
         <v>69194</v>
       </c>
-      <c r="D39" s="15">
-        <f t="shared" si="15"/>
+      <c r="D39" s="14">
+        <f t="shared" si="14"/>
         <v>433</v>
       </c>
-      <c r="E39" s="15">
-        <f t="shared" si="14"/>
+      <c r="E39" s="14">
+        <f t="shared" si="13"/>
         <v>68761</v>
       </c>
       <c r="F39" s="7">
@@ -22551,16 +20850,16 @@
       <c r="H39" s="6">
         <v>13963</v>
       </c>
-      <c r="I39" s="12">
-        <f t="shared" si="9"/>
+      <c r="I39" s="11">
+        <f t="shared" si="2"/>
         <v>134961.43958868895</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="14">
-        <f t="shared" si="18"/>
         <v>134961.43958868895</v>
       </c>
       <c r="L39" s="5">
@@ -22570,21 +20869,21 @@
         <v>1050</v>
       </c>
       <c r="N39" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1117.4054717165402</v>
       </c>
       <c r="O39" s="8">
         <v>249</v>
       </c>
       <c r="P39" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>266.68500093541269</v>
       </c>
       <c r="Q39" s="5">
         <v>66</v>
       </c>
       <c r="R39" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.5174726132323612E-2</v>
       </c>
     </row>
@@ -22598,12 +20897,12 @@
       <c r="C40" s="6">
         <v>85991</v>
       </c>
-      <c r="D40" s="15">
-        <f t="shared" si="15"/>
+      <c r="D40" s="14">
+        <f t="shared" si="14"/>
         <v>554</v>
       </c>
-      <c r="E40" s="15">
-        <f t="shared" si="14"/>
+      <c r="E40" s="14">
+        <f t="shared" si="13"/>
         <v>85437</v>
       </c>
       <c r="F40" s="7">
@@ -22617,16 +20916,16 @@
       <c r="H40" s="6">
         <v>16797</v>
       </c>
-      <c r="I40" s="12">
-        <f t="shared" si="9"/>
+      <c r="I40" s="11">
+        <f t="shared" si="2"/>
         <v>166580.97686375323</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="14">
-        <f t="shared" si="18"/>
         <v>166580.97686375323</v>
       </c>
       <c r="L40" s="5">
@@ -22636,21 +20935,21 @@
         <v>1296</v>
       </c>
       <c r="N40" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1412.776857559684</v>
       </c>
       <c r="O40" s="8">
         <v>246</v>
       </c>
       <c r="P40" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>325.55932325416148</v>
       </c>
       <c r="Q40" s="5">
         <v>67</v>
       </c>
       <c r="R40" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.5071344675605586E-2</v>
       </c>
     </row>
@@ -22664,11 +20963,11 @@
       <c r="C41" s="6">
         <v>104686</v>
       </c>
-      <c r="D41" s="15">
-        <f t="shared" ref="D41:D73" si="19">+C23</f>
+      <c r="D41" s="14">
+        <f t="shared" ref="D41:D73" si="18">+C23</f>
         <v>754</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="14">
         <f>+C41-D41</f>
         <v>103932</v>
       </c>
@@ -22683,15 +20982,15 @@
       <c r="H41" s="6">
         <v>18695</v>
       </c>
-      <c r="I41" s="12">
-        <f t="shared" si="9"/>
+      <c r="I41" s="11">
+        <f t="shared" ref="I41:I73" si="19">+C41*(R41/$I$4)</f>
         <v>219408.7403598972</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="13">
         <f t="shared" ref="J41:J45" si="20">+I23</f>
         <v>3341.9023136246788</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="13">
         <f t="shared" ref="K41:K45" si="21">+I41-J41</f>
         <v>216066.83804627252</v>
       </c>
@@ -22702,21 +21001,21 @@
         <v>1707</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1771.6394171271593</v>
       </c>
       <c r="O41" s="8">
         <v>411</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>393.77511507658215</v>
       </c>
       <c r="Q41" s="5">
         <v>68</v>
       </c>
       <c r="R41" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.6305905278642799E-2</v>
       </c>
     </row>
@@ -22730,11 +21029,11 @@
       <c r="C42" s="6">
         <v>124665</v>
       </c>
-      <c r="D42" s="15">
-        <f t="shared" si="19"/>
+      <c r="D42" s="14">
+        <f t="shared" si="18"/>
         <v>1025</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="14">
         <f t="shared" ref="E42:E73" si="22">+C42-D42</f>
         <v>123640</v>
       </c>
@@ -22749,15 +21048,15 @@
       <c r="H42" s="6">
         <v>19979</v>
       </c>
-      <c r="I42" s="12">
-        <f t="shared" si="9"/>
+      <c r="I42" s="11">
+        <f t="shared" si="19"/>
         <v>281619.53727506427</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="13">
         <f t="shared" si="20"/>
         <v>3598.9717223650387</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="13">
         <f t="shared" si="21"/>
         <v>278020.5655526992</v>
       </c>
@@ -22768,21 +21067,21 @@
         <v>2191</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2203.6332509747285</v>
       </c>
       <c r="O42" s="8">
         <v>484</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>471.90326341813136</v>
       </c>
       <c r="Q42" s="5">
         <v>69</v>
       </c>
       <c r="R42" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.7575101271407371E-2</v>
       </c>
     </row>
@@ -22796,11 +21095,11 @@
       <c r="C43" s="6">
         <v>143025</v>
       </c>
-      <c r="D43" s="15">
-        <f t="shared" si="19"/>
+      <c r="D43" s="14">
+        <f t="shared" si="18"/>
         <v>1312</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="14">
         <f t="shared" si="22"/>
         <v>141713</v>
       </c>
@@ -22815,15 +21114,15 @@
       <c r="H43" s="6">
         <v>18360</v>
       </c>
-      <c r="I43" s="12">
-        <f t="shared" si="9"/>
+      <c r="I43" s="11">
+        <f t="shared" si="19"/>
         <v>322493.5732647815</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="13">
         <f t="shared" si="20"/>
         <v>3856.0411311053986</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="13">
         <f t="shared" si="21"/>
         <v>318637.53213367611</v>
       </c>
@@ -22834,21 +21133,21 @@
         <v>2509</v>
       </c>
       <c r="N43" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2718.8816056355163</v>
       </c>
       <c r="O43" s="8">
         <v>318</v>
       </c>
       <c r="P43" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>560.33051951821096</v>
       </c>
       <c r="Q43" s="5">
         <v>70</v>
       </c>
       <c r="R43" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.7542387694459011E-2</v>
       </c>
     </row>
@@ -22862,11 +21161,11 @@
       <c r="C44" s="6">
         <v>164620</v>
       </c>
-      <c r="D44" s="15">
-        <f t="shared" si="19"/>
+      <c r="D44" s="14">
+        <f t="shared" si="18"/>
         <v>1663</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="14">
         <f t="shared" si="22"/>
         <v>162957</v>
       </c>
@@ -22881,15 +21180,15 @@
       <c r="H44" s="6">
         <v>21595</v>
       </c>
-      <c r="I44" s="12">
-        <f t="shared" si="9"/>
+      <c r="I44" s="11">
+        <f t="shared" si="19"/>
         <v>407455.01285347046</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="13">
         <f t="shared" si="20"/>
         <v>5141.3881748071981</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="13">
         <f t="shared" si="21"/>
         <v>402313.62467866327</v>
       </c>
@@ -22900,21 +21199,21 @@
         <v>3170</v>
       </c>
       <c r="N44" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3327.7807281012456</v>
       </c>
       <c r="O44" s="8">
         <v>661</v>
       </c>
       <c r="P44" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>659.20752836289046</v>
       </c>
       <c r="Q44" s="5">
         <v>71</v>
       </c>
       <c r="R44" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.9256469444781921E-2</v>
       </c>
     </row>
@@ -22928,11 +21227,11 @@
       <c r="C45" s="6">
         <v>189618</v>
       </c>
-      <c r="D45" s="15">
-        <f t="shared" si="19"/>
+      <c r="D45" s="14">
+        <f t="shared" si="18"/>
         <v>2174</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="14">
         <f t="shared" si="22"/>
         <v>187444</v>
       </c>
@@ -22947,15 +21246,15 @@
       <c r="H45" s="6">
         <v>24998</v>
       </c>
-      <c r="I45" s="12">
-        <f t="shared" si="9"/>
+      <c r="I45" s="11">
+        <f t="shared" si="19"/>
         <v>524293.05912596406</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="13">
         <f t="shared" si="20"/>
         <v>6041.1311053984573</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="13">
         <f t="shared" si="21"/>
         <v>518251.9280205656</v>
       </c>
@@ -22966,21 +21265,21 @@
         <v>4079</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4040.7384086559696</v>
       </c>
       <c r="O45" s="8">
         <v>909</v>
       </c>
       <c r="P45" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>768.39870225773711</v>
       </c>
       <c r="Q45" s="5">
         <v>72</v>
       </c>
       <c r="R45" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.1511670832937802E-2</v>
       </c>
     </row>
@@ -22994,11 +21293,11 @@
       <c r="C46" s="6">
         <v>216721</v>
       </c>
-      <c r="D46" s="15">
-        <f t="shared" si="19"/>
+      <c r="D46" s="14">
+        <f t="shared" si="18"/>
         <v>2951</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="14">
         <f t="shared" si="22"/>
         <v>213770</v>
       </c>
@@ -23013,15 +21312,15 @@
       <c r="H46" s="6">
         <v>27103</v>
       </c>
-      <c r="I46" s="12">
-        <f t="shared" si="9"/>
+      <c r="I46" s="11">
+        <f t="shared" si="19"/>
         <v>660411.31105398468</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="13">
         <f t="shared" ref="J46:J53" si="23">+I28</f>
         <v>7326.4781491002568</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="13">
         <f t="shared" ref="K46:K72" si="24">+I46-J46</f>
         <v>653084.83290488448</v>
       </c>
@@ -23032,21 +21331,21 @@
         <v>5138</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4867.8646995178951</v>
       </c>
       <c r="O46" s="8">
         <v>1059</v>
       </c>
       <c r="P46" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>887.43728326495295</v>
       </c>
       <c r="Q46" s="5">
         <v>73</v>
       </c>
       <c r="R46" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.3707900941763834E-2</v>
       </c>
     </row>
@@ -23060,11 +21359,11 @@
       <c r="C47" s="6">
         <v>245540</v>
       </c>
-      <c r="D47" s="15">
-        <f t="shared" si="19"/>
+      <c r="D47" s="14">
+        <f t="shared" si="18"/>
         <v>3774</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="14">
         <f t="shared" si="22"/>
         <v>241766</v>
       </c>
@@ -23079,15 +21378,15 @@
       <c r="H47" s="6">
         <v>28819</v>
       </c>
-      <c r="I47" s="12">
-        <f t="shared" si="9"/>
+      <c r="I47" s="11">
+        <f t="shared" si="19"/>
         <v>778020.56555269926</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="13">
         <f t="shared" si="23"/>
         <v>8868.8946015424171</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="13">
         <f t="shared" si="24"/>
         <v>769151.67095115688</v>
       </c>
@@ -23098,21 +21397,21 @@
         <v>6053</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5818.6217814918664</v>
       </c>
       <c r="O47" s="8">
         <v>915</v>
       </c>
       <c r="P47" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1015.4891832333639</v>
       </c>
       <c r="Q47" s="5">
         <v>74</v>
       </c>
       <c r="R47" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.4651787896065813E-2</v>
       </c>
     </row>
@@ -23126,11 +21425,11 @@
       <c r="C48" s="6">
         <v>277965</v>
       </c>
-      <c r="D48" s="15">
-        <f t="shared" si="19"/>
+      <c r="D48" s="14">
+        <f t="shared" si="18"/>
         <v>4661</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="14">
         <f t="shared" si="22"/>
         <v>273304</v>
       </c>
@@ -23145,15 +21444,15 @@
       <c r="H48" s="6">
         <v>32425</v>
       </c>
-      <c r="I48" s="12">
-        <f t="shared" si="9"/>
+      <c r="I48" s="11">
+        <f t="shared" si="19"/>
         <v>919922.87917737802</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="13">
         <f t="shared" si="23"/>
         <v>10925.449871465296</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="13">
         <f t="shared" si="24"/>
         <v>908997.42930591269</v>
       </c>
@@ -23164,21 +21463,21 @@
         <v>7157</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6901.4435629021937</v>
       </c>
       <c r="O48" s="8">
         <v>1104</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1151.329192608059</v>
       </c>
       <c r="Q48" s="5">
         <v>75</v>
       </c>
       <c r="R48" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.5747845951828469E-2</v>
       </c>
     </row>
@@ -23192,11 +21491,11 @@
       <c r="C49" s="6">
         <v>312237</v>
       </c>
-      <c r="D49" s="15">
-        <f t="shared" si="19"/>
+      <c r="D49" s="14">
+        <f t="shared" si="18"/>
         <v>6427</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="14">
         <f t="shared" si="22"/>
         <v>305810</v>
       </c>
@@ -23211,15 +21510,15 @@
       <c r="H49" s="6">
         <v>34272</v>
       </c>
-      <c r="I49" s="12">
-        <f t="shared" si="9"/>
+      <c r="I49" s="11">
+        <f t="shared" si="19"/>
         <v>1092673.5218508998</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="13">
         <f t="shared" si="23"/>
         <v>13881.748071979433</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="13">
         <f t="shared" si="24"/>
         <v>1078791.7737789203</v>
       </c>
@@ -23230,21 +21529,21 @@
         <v>8501</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8123.3390709254436</v>
       </c>
       <c r="O49" s="8">
         <v>1344</v>
       </c>
       <c r="P49" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1293.33286900024</v>
       </c>
       <c r="Q49" s="5">
         <v>76</v>
       </c>
       <c r="R49" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.7226113497119175E-2</v>
       </c>
     </row>
@@ -23258,11 +21557,11 @@
       <c r="C50" s="6">
         <v>337635</v>
       </c>
-      <c r="D50" s="15">
-        <f t="shared" si="19"/>
+      <c r="D50" s="14">
+        <f t="shared" si="18"/>
         <v>9415</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="14">
         <f t="shared" si="22"/>
         <v>328220</v>
       </c>
@@ -23277,15 +21576,15 @@
       <c r="H50" s="6">
         <v>25398</v>
       </c>
-      <c r="I50" s="12">
-        <f t="shared" si="9"/>
+      <c r="I50" s="11">
+        <f t="shared" si="19"/>
         <v>1239974.293059126</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="13">
         <f t="shared" si="23"/>
         <v>19280.205655526992</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K50" s="13">
         <f t="shared" si="24"/>
         <v>1220694.0874035989</v>
       </c>
@@ -23296,21 +21595,21 @@
         <v>9647</v>
       </c>
       <c r="N50" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9489.4967402966231</v>
       </c>
       <c r="O50" s="8">
         <v>1146</v>
       </c>
       <c r="P50" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1439.4868334118353</v>
       </c>
       <c r="Q50" s="5">
         <v>77</v>
       </c>
       <c r="R50" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.8572274793786188E-2</v>
       </c>
     </row>
@@ -23324,11 +21623,11 @@
       <c r="C51" s="6">
         <v>368196</v>
       </c>
-      <c r="D51" s="15">
-        <f t="shared" si="19"/>
+      <c r="D51" s="14">
+        <f t="shared" si="18"/>
         <v>14250</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="14">
         <f t="shared" si="22"/>
         <v>353946</v>
       </c>
@@ -23343,15 +21642,15 @@
       <c r="H51" s="6">
         <v>30561</v>
       </c>
-      <c r="I51" s="12">
-        <f t="shared" si="9"/>
+      <c r="I51" s="11">
+        <f t="shared" si="19"/>
         <v>1412467.8663239076</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="13">
         <f t="shared" si="23"/>
         <v>19280.205655526996</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="13">
         <f t="shared" si="24"/>
         <v>1393187.6606683806</v>
       </c>
@@ -23362,21 +21661,21 @@
         <v>10989</v>
       </c>
       <c r="N51" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>11002.90901609858</v>
       </c>
       <c r="O51" s="8">
         <v>1342</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1587.4193223309178</v>
       </c>
       <c r="Q51" s="5">
         <v>78</v>
       </c>
       <c r="R51" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.9845517061565036E-2</v>
       </c>
     </row>
@@ -23390,11 +21689,11 @@
       <c r="C52" s="6">
         <v>398809</v>
       </c>
-      <c r="D52" s="15">
-        <f t="shared" si="19"/>
+      <c r="D52" s="14">
+        <f t="shared" si="18"/>
         <v>19624</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="14">
         <f t="shared" si="22"/>
         <v>379185</v>
       </c>
@@ -23409,15 +21708,15 @@
       <c r="H52" s="6">
         <v>30613</v>
       </c>
-      <c r="I52" s="12">
-        <f t="shared" si="9"/>
+      <c r="I52" s="11">
+        <f t="shared" si="19"/>
         <v>1657455.0128534702</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="13">
         <f t="shared" si="23"/>
         <v>33419.023136246789</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="13">
         <f t="shared" si="24"/>
         <v>1624035.9897172234</v>
       </c>
@@ -23428,21 +21727,21 @@
         <v>12895</v>
       </c>
       <c r="N52" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>12664.037984852903</v>
       </c>
       <c r="O52" s="8">
         <v>1906</v>
       </c>
       <c r="P52" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1734.4517036880325</v>
       </c>
       <c r="Q52" s="5">
         <v>79</v>
       </c>
       <c r="R52" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.233377381152381E-2</v>
       </c>
     </row>
@@ -23456,11 +21755,11 @@
       <c r="C53" s="6">
         <v>432132</v>
       </c>
-      <c r="D53" s="15">
-        <f t="shared" si="19"/>
+      <c r="D53" s="14">
+        <f t="shared" si="18"/>
         <v>26747</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="14">
         <f t="shared" si="22"/>
         <v>405385</v>
       </c>
@@ -23475,15 +21774,15 @@
       <c r="H53" s="6">
         <v>33323</v>
       </c>
-      <c r="I53" s="12">
-        <f t="shared" si="9"/>
+      <c r="I53" s="11">
+        <f t="shared" si="19"/>
         <v>1904498.7146529562</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="13">
         <f t="shared" si="23"/>
         <v>43701.799485861186</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K53" s="13">
         <f t="shared" si="24"/>
         <v>1860796.9151670951</v>
       </c>
@@ -23494,21 +21793,21 @@
         <v>14817</v>
       </c>
       <c r="N53" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>14470.542801470448</v>
       </c>
       <c r="O53" s="8">
         <v>1922</v>
       </c>
       <c r="P53" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1877.6703299502467</v>
       </c>
       <c r="Q53" s="5">
         <v>80</v>
       </c>
       <c r="R53" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.4288134181222403E-2</v>
       </c>
     </row>
@@ -23522,11 +21821,11 @@
       <c r="C54" s="6">
         <v>466033</v>
       </c>
-      <c r="D54" s="15">
-        <f t="shared" si="19"/>
+      <c r="D54" s="14">
+        <f t="shared" si="18"/>
         <v>35206</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="12">
         <f t="shared" si="22"/>
         <v>430827</v>
       </c>
@@ -23541,15 +21840,15 @@
       <c r="H54" s="6">
         <v>33901</v>
       </c>
-      <c r="I54" s="12">
-        <f t="shared" si="9"/>
+      <c r="I54" s="11">
+        <f t="shared" si="19"/>
         <v>2145244.2159383036</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="13">
         <f t="shared" ref="J54:J72" si="25">+I36</f>
         <v>60539.845758354757</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K54" s="12">
         <f t="shared" si="24"/>
         <v>2084704.3701799489</v>
       </c>
@@ -23560,21 +21859,21 @@
         <v>16690</v>
       </c>
       <c r="N54" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>16417.088338738937</v>
       </c>
       <c r="O54" s="8">
         <v>1873</v>
       </c>
       <c r="P54" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2014.0166653176514</v>
       </c>
       <c r="Q54" s="5">
         <v>81</v>
       </c>
       <c r="R54" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.5812914536095086E-2</v>
       </c>
     </row>
@@ -23588,11 +21887,11 @@
       <c r="C55" s="6">
         <v>501560</v>
       </c>
-      <c r="D55" s="15">
-        <f t="shared" si="19"/>
+      <c r="D55" s="14">
+        <f t="shared" si="18"/>
         <v>46442</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="12">
         <f t="shared" si="22"/>
         <v>455118</v>
       </c>
@@ -23607,15 +21906,15 @@
       <c r="H55" s="6">
         <v>35527</v>
       </c>
-      <c r="I55" s="12">
-        <f t="shared" si="9"/>
+      <c r="I55" s="11">
+        <f t="shared" si="19"/>
         <v>2413496.1439588689</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="13">
         <f t="shared" si="25"/>
         <v>75835.475578406171</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K55" s="12">
         <f t="shared" si="24"/>
         <v>2337660.6683804626</v>
       </c>
@@ -23626,21 +21925,21 @@
         <v>18777</v>
       </c>
       <c r="N55" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>18495.251704532973</v>
       </c>
       <c r="O55" s="8">
         <v>2087</v>
       </c>
       <c r="P55" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2140.3921991247134</v>
       </c>
       <c r="Q55" s="5">
         <v>82</v>
       </c>
       <c r="R55" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.7437195948640242E-2</v>
       </c>
     </row>
@@ -23654,11 +21953,11 @@
       <c r="C56" s="6">
         <v>529951</v>
       </c>
-      <c r="D56" s="15">
-        <f t="shared" si="19"/>
+      <c r="D56" s="14">
+        <f t="shared" si="18"/>
         <v>55231</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="12">
         <f t="shared" si="22"/>
         <v>474720</v>
       </c>
@@ -23673,15 +21972,15 @@
       <c r="H56" s="6">
         <v>28391</v>
       </c>
-      <c r="I56" s="12">
-        <f t="shared" si="9"/>
+      <c r="I56" s="11">
+        <f t="shared" si="19"/>
         <v>2648843.1876606685</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="13">
         <f t="shared" si="25"/>
         <v>102956.29820051415</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K56" s="12">
         <f t="shared" si="24"/>
         <v>2545886.8894601543</v>
       </c>
@@ -23692,21 +21991,21 @@
         <v>20608</v>
       </c>
       <c r="N56" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>20693.539122620234</v>
       </c>
       <c r="O56" s="8">
         <v>1831</v>
       </c>
       <c r="P56" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2253.7733676154949</v>
       </c>
       <c r="Q56" s="5">
         <v>83</v>
       </c>
       <c r="R56" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.8886614045449484E-2</v>
       </c>
     </row>
@@ -23720,11 +22019,11 @@
       <c r="C57" s="6">
         <v>557571</v>
       </c>
-      <c r="D57" s="15">
-        <f t="shared" si="19"/>
+      <c r="D57" s="14">
+        <f t="shared" si="18"/>
         <v>69194</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="12">
         <f t="shared" si="22"/>
         <v>488377</v>
       </c>
@@ -23739,15 +22038,15 @@
       <c r="H57" s="6">
         <v>27620</v>
       </c>
-      <c r="I57" s="12">
-        <f t="shared" si="9"/>
+      <c r="I57" s="11">
+        <f t="shared" si="19"/>
         <v>2841645.2442159387</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="13">
         <f t="shared" si="25"/>
         <v>134961.43958868895</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="12">
         <f t="shared" si="24"/>
         <v>2706683.8046272499</v>
       </c>
@@ -23758,21 +22057,21 @@
         <v>22108</v>
       </c>
       <c r="N57" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>22997.520352389656</v>
       </c>
       <c r="O57" s="8">
         <v>1500</v>
       </c>
       <c r="P57" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2351.3306732565684</v>
       </c>
       <c r="Q57" s="5">
         <v>84</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.9650555713980823E-2</v>
       </c>
     </row>
@@ -23786,11 +22085,11 @@
       <c r="C58" s="6">
         <v>582594</v>
       </c>
-      <c r="D58" s="15">
-        <f t="shared" si="19"/>
+      <c r="D58" s="14">
+        <f t="shared" si="18"/>
         <v>85991</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="12">
         <f t="shared" si="22"/>
         <v>496603</v>
       </c>
@@ -23805,15 +22104,15 @@
       <c r="H58" s="6">
         <v>25023</v>
       </c>
-      <c r="I58" s="12">
-        <f t="shared" si="9"/>
+      <c r="I58" s="11">
+        <f t="shared" si="19"/>
         <v>3039717.2236503861</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="13">
         <f t="shared" si="25"/>
         <v>166580.97686375323</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="12">
         <f t="shared" si="24"/>
         <v>2873136.246786633</v>
       </c>
@@ -23824,21 +22123,21 @@
         <v>23649</v>
       </c>
       <c r="N58" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>25390.081643538801</v>
       </c>
       <c r="O58" s="8">
         <v>1541</v>
       </c>
       <c r="P58" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2430.5455223587519</v>
       </c>
       <c r="Q58" s="5">
         <v>85</v>
       </c>
       <c r="R58" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.0592591066849301E-2</v>
       </c>
     </row>
@@ -23852,11 +22151,11 @@
       <c r="C59" s="6">
         <v>609516</v>
       </c>
-      <c r="D59" s="15">
-        <f t="shared" si="19"/>
+      <c r="D59" s="14">
+        <f t="shared" si="18"/>
         <v>104686</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="12">
         <f t="shared" si="22"/>
         <v>504830</v>
       </c>
@@ -23871,15 +22170,15 @@
       <c r="H59" s="6">
         <v>26922</v>
       </c>
-      <c r="I59" s="12">
-        <f t="shared" si="9"/>
+      <c r="I59" s="11">
+        <f t="shared" si="19"/>
         <v>3349228.7917737793</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="13">
         <f t="shared" si="25"/>
         <v>219408.7403598972</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="12">
         <f t="shared" si="24"/>
         <v>3129820.0514138821</v>
       </c>
@@ -23890,21 +22189,21 @@
         <v>26057</v>
       </c>
       <c r="N59" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>27851.791591573554</v>
       </c>
       <c r="O59" s="8">
         <v>2408</v>
       </c>
       <c r="P59" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2489.3180791030427</v>
       </c>
       <c r="Q59" s="5">
         <v>86</v>
       </c>
       <c r="R59" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.2750313363389969E-2</v>
       </c>
     </row>
@@ -23918,11 +22217,11 @@
       <c r="C60" s="6">
         <v>639664</v>
       </c>
-      <c r="D60" s="15">
-        <f t="shared" si="19"/>
+      <c r="D60" s="14">
+        <f t="shared" si="18"/>
         <v>124665</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="12">
         <f t="shared" si="22"/>
         <v>514999</v>
       </c>
@@ -23937,15 +22236,15 @@
       <c r="H60" s="6">
         <v>30148</v>
       </c>
-      <c r="I60" s="12">
-        <f t="shared" si="9"/>
+      <c r="I60" s="11">
+        <f t="shared" si="19"/>
         <v>3982647.8149100258</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="13">
         <f t="shared" si="25"/>
         <v>281619.53727506427</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K60" s="12">
         <f t="shared" si="24"/>
         <v>3701028.2776349615</v>
       </c>
@@ -23956,21 +22255,21 @@
         <v>30985</v>
       </c>
       <c r="N60" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>30361.367650199485</v>
       </c>
       <c r="O60" s="8">
         <v>4928</v>
       </c>
       <c r="P60" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2526.0597014800346</v>
       </c>
       <c r="Q60" s="5">
         <v>87</v>
       </c>
       <c r="R60" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.843949323394782E-2</v>
       </c>
     </row>
@@ -23984,11 +22283,11 @@
       <c r="C61" s="6">
         <v>671331</v>
       </c>
-      <c r="D61" s="15">
-        <f t="shared" si="19"/>
+      <c r="D61" s="14">
+        <f t="shared" si="18"/>
         <v>143025</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="12">
         <f t="shared" si="22"/>
         <v>528306</v>
       </c>
@@ -24003,15 +22302,15 @@
       <c r="H61" s="6">
         <v>31667</v>
       </c>
-      <c r="I61" s="12">
-        <f t="shared" si="9"/>
+      <c r="I61" s="11">
+        <f t="shared" si="19"/>
         <v>4278149.1002570698</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="13">
         <f t="shared" si="25"/>
         <v>322493.5732647815</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K61" s="12">
         <f t="shared" si="24"/>
         <v>3955655.5269922884</v>
       </c>
@@ -24022,21 +22321,21 @@
         <v>33284</v>
       </c>
       <c r="N61" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>32896.224961678417</v>
       </c>
       <c r="O61" s="8">
         <v>2299</v>
       </c>
       <c r="P61" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2539.76428313214</v>
       </c>
       <c r="Q61" s="5">
         <v>88</v>
       </c>
       <c r="R61" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4.9579119689095244E-2</v>
       </c>
     </row>
@@ -24050,11 +22349,11 @@
       <c r="C62" s="6">
         <v>702164</v>
       </c>
-      <c r="D62" s="15">
-        <f t="shared" si="19"/>
+      <c r="D62" s="14">
+        <f t="shared" si="18"/>
         <v>164620</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="12">
         <f t="shared" si="22"/>
         <v>537544</v>
       </c>
@@ -24069,15 +22368,15 @@
       <c r="H62" s="6">
         <v>30833</v>
       </c>
-      <c r="I62" s="12">
-        <f t="shared" si="9"/>
+      <c r="I62" s="11">
+        <f t="shared" si="19"/>
         <v>4762724.9357326478</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="13">
         <f t="shared" si="25"/>
         <v>407455.01285347046</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K62" s="12">
         <f t="shared" si="24"/>
         <v>4355269.9228791771</v>
       </c>
@@ -24088,21 +22387,21 @@
         <v>37054</v>
       </c>
       <c r="N62" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>35433.084058515327</v>
       </c>
       <c r="O62" s="8">
         <v>3770</v>
       </c>
       <c r="P62" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2530.0540300445773</v>
       </c>
       <c r="Q62" s="5">
         <v>89</v>
       </c>
       <c r="R62" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.2771147481215218E-2</v>
       </c>
     </row>
@@ -24116,11 +22415,11 @@
       <c r="C63" s="6">
         <v>735086</v>
       </c>
-      <c r="D63" s="15">
-        <f t="shared" si="19"/>
+      <c r="D63" s="14">
+        <f t="shared" si="18"/>
         <v>189618</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="12">
         <f t="shared" si="22"/>
         <v>545468</v>
       </c>
@@ -24135,15 +22434,15 @@
       <c r="H63" s="6">
         <v>32922</v>
       </c>
-      <c r="I63" s="12">
-        <f t="shared" si="9"/>
+      <c r="I63" s="11">
+        <f t="shared" si="19"/>
         <v>5001285.3470437024</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="13">
         <f t="shared" si="25"/>
         <v>524293.05912596406</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63" s="12">
         <f t="shared" si="24"/>
         <v>4476992.2879177388</v>
       </c>
@@ -24154,21 +22453,21 @@
         <v>38910</v>
       </c>
       <c r="N63" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>37948.610275543935</v>
       </c>
       <c r="O63" s="8">
         <v>1856</v>
       </c>
       <c r="P63" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2497.1967651084201</v>
       </c>
       <c r="Q63" s="5">
         <v>90</v>
       </c>
       <c r="R63" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.2932582038020044E-2</v>
       </c>
     </row>
@@ -24182,11 +22481,11 @@
       <c r="C64" s="6">
         <v>759687</v>
       </c>
-      <c r="D64" s="15">
-        <f t="shared" si="19"/>
+      <c r="D64" s="14">
+        <f t="shared" si="18"/>
         <v>216721</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="12">
         <f t="shared" si="22"/>
         <v>542966</v>
       </c>
@@ -24201,15 +22500,15 @@
       <c r="H64" s="6">
         <v>24601</v>
       </c>
-      <c r="I64" s="12">
-        <f t="shared" si="9"/>
+      <c r="I64" s="11">
+        <f t="shared" si="19"/>
         <v>5229048.8431876609</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="13">
         <f t="shared" si="25"/>
         <v>660411.31105398468</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K64" s="12">
         <f t="shared" si="24"/>
         <v>4568637.5321336761</v>
       </c>
@@ -24220,21 +22519,21 @@
         <v>40682</v>
       </c>
       <c r="N64" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>40420.055690960922</v>
       </c>
       <c r="O64" s="8">
         <v>1772</v>
       </c>
       <c r="P64" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2442.0936542778509</v>
       </c>
       <c r="Q64" s="5">
         <v>91</v>
       </c>
       <c r="R64" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.3551001925793124E-2</v>
       </c>
     </row>
@@ -24248,11 +22547,11 @@
       <c r="C65" s="6">
         <v>787752</v>
       </c>
-      <c r="D65" s="15">
-        <f t="shared" si="19"/>
+      <c r="D65" s="14">
+        <f t="shared" si="18"/>
         <v>245540</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="12">
         <f t="shared" si="22"/>
         <v>542212</v>
       </c>
@@ -24267,15 +22566,15 @@
       <c r="H65" s="6">
         <v>28065</v>
       </c>
-      <c r="I65" s="12">
-        <f t="shared" si="9"/>
+      <c r="I65" s="11">
+        <f t="shared" si="19"/>
         <v>5467737.789203085</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="13">
         <f t="shared" si="25"/>
         <v>778020.56555269926</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K65" s="12">
         <f t="shared" si="24"/>
         <v>4689717.2236503856</v>
       </c>
@@ -24286,21 +22585,21 @@
         <v>42539</v>
       </c>
       <c r="N65" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>42825.874253141395</v>
       </c>
       <c r="O65" s="8">
         <v>1857</v>
       </c>
       <c r="P65" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2366.2381393961318</v>
       </c>
       <c r="Q65" s="5">
         <v>92</v>
       </c>
       <c r="R65" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.4000497618539846E-2</v>
       </c>
     </row>
@@ -24314,11 +22613,11 @@
       <c r="C66" s="6">
         <v>825041</v>
       </c>
-      <c r="D66" s="15">
-        <f t="shared" si="19"/>
+      <c r="D66" s="14">
+        <f t="shared" si="18"/>
         <v>277965</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="12">
         <f t="shared" si="22"/>
         <v>547076</v>
       </c>
@@ -24333,15 +22632,15 @@
       <c r="H66" s="6">
         <v>37289</v>
       </c>
-      <c r="I66" s="12">
-        <f t="shared" si="9"/>
+      <c r="I66" s="11">
+        <f t="shared" si="19"/>
         <v>5792159.38303342</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="13">
         <f t="shared" si="25"/>
         <v>919922.87917737802</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K66" s="12">
         <f t="shared" si="24"/>
         <v>4872236.5038560424</v>
       </c>
@@ -24352,21 +22651,21 @@
         <v>45063</v>
       </c>
       <c r="N66" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>45146.282460406626</v>
       </c>
       <c r="O66" s="8">
         <v>2524</v>
       </c>
       <c r="P66" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2271.6486897510217</v>
       </c>
       <c r="Q66" s="5">
         <v>93</v>
       </c>
       <c r="R66" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.4619103777872859E-2</v>
       </c>
     </row>
@@ -24380,11 +22679,11 @@
       <c r="C67" s="6">
         <v>842629</v>
       </c>
-      <c r="D67" s="15">
-        <f t="shared" si="19"/>
+      <c r="D67" s="14">
+        <f t="shared" si="18"/>
         <v>312237</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="12">
         <f t="shared" si="22"/>
         <v>530392</v>
       </c>
@@ -24399,15 +22698,15 @@
       <c r="H67" s="6">
         <v>17588</v>
       </c>
-      <c r="I67" s="12">
-        <f t="shared" si="9"/>
+      <c r="I67" s="11">
+        <f t="shared" si="19"/>
         <v>6013367.609254499</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="13">
         <f t="shared" si="25"/>
         <v>1092673.5218508998</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K67" s="12">
         <f t="shared" si="24"/>
         <v>4920694.0874035992</v>
       </c>
@@ -24418,21 +22717,21 @@
         <v>46784</v>
       </c>
       <c r="N67" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>47363.741403474574</v>
       </c>
       <c r="O67" s="8">
         <v>1721</v>
       </c>
       <c r="P67" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2160.7795984510253</v>
       </c>
       <c r="Q67" s="5">
         <v>94</v>
       </c>
       <c r="R67" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.5521469116301479E-2</v>
       </c>
     </row>
@@ -24446,11 +22745,11 @@
       <c r="C68" s="6">
         <v>869172</v>
       </c>
-      <c r="D68" s="15">
-        <f t="shared" si="19"/>
+      <c r="D68" s="14">
+        <f t="shared" si="18"/>
         <v>337635</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="12">
         <f t="shared" si="22"/>
         <v>531537</v>
       </c>
@@ -24465,15 +22764,15 @@
       <c r="H68" s="6">
         <v>26543</v>
       </c>
-      <c r="I68" s="12">
-        <f t="shared" si="9"/>
+      <c r="I68" s="11">
+        <f t="shared" si="19"/>
         <v>6421979.4344473006</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="13">
         <f t="shared" si="25"/>
         <v>1239974.293059126</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K68" s="12">
         <f t="shared" si="24"/>
         <v>5182005.1413881741</v>
       </c>
@@ -24484,21 +22783,21 @@
         <v>49963</v>
       </c>
       <c r="N68" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>49463.34087610741</v>
       </c>
       <c r="O68" s="8">
         <v>3179</v>
       </c>
       <c r="P68" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2036.4153233548618</v>
       </c>
       <c r="Q68" s="5">
         <v>95</v>
       </c>
       <c r="R68" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.7483444013382852E-2</v>
       </c>
     </row>
@@ -24512,11 +22811,11 @@
       <c r="C69" s="6">
         <v>890524</v>
       </c>
-      <c r="D69" s="15">
-        <f t="shared" si="19"/>
+      <c r="D69" s="14">
+        <f t="shared" si="18"/>
         <v>368196</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="12">
         <f t="shared" si="22"/>
         <v>522328</v>
       </c>
@@ -24531,15 +22830,15 @@
       <c r="H69" s="6">
         <v>21352</v>
       </c>
-      <c r="I69" s="12">
-        <f t="shared" si="9"/>
+      <c r="I69" s="11">
+        <f t="shared" si="19"/>
         <v>6557455.0128534706</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="13">
         <f t="shared" si="25"/>
         <v>1412467.8663239076</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K69" s="12">
         <f t="shared" si="24"/>
         <v>5144987.1465295628</v>
       </c>
@@ -24550,21 +22849,21 @@
         <v>51017</v>
       </c>
       <c r="N69" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>51433.072217874054</v>
       </c>
       <c r="O69" s="8">
         <v>1054</v>
       </c>
       <c r="P69" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1901.5547115080958</v>
       </c>
       <c r="Q69" s="5">
         <v>96</v>
       </c>
       <c r="R69" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.7288742358431663E-2</v>
       </c>
     </row>
@@ -24578,11 +22877,11 @@
       <c r="C70" s="6">
         <v>939053</v>
       </c>
-      <c r="D70" s="15">
-        <f t="shared" si="19"/>
+      <c r="D70" s="14">
+        <f t="shared" si="18"/>
         <v>398809</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="12">
         <f t="shared" si="22"/>
         <v>540244</v>
       </c>
@@ -24597,15 +22896,15 @@
       <c r="H70" s="6">
         <v>48529</v>
       </c>
-      <c r="I70" s="12">
-        <f t="shared" si="9"/>
+      <c r="I70" s="11">
+        <f t="shared" si="19"/>
         <v>6836632.390745501</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="13">
         <f t="shared" si="25"/>
         <v>1657455.0128534702</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K70" s="12">
         <f t="shared" si="24"/>
         <v>5179177.3778920304</v>
       </c>
@@ -24616,21 +22915,21 @@
         <v>53189</v>
       </c>
       <c r="N70" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>53263.983109718887</v>
       </c>
       <c r="O70" s="8">
         <v>2172</v>
       </c>
       <c r="P70" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1759.2917986043458</v>
       </c>
       <c r="Q70" s="5">
         <v>97</v>
       </c>
       <c r="R70" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.6641105454111745E-2</v>
       </c>
     </row>
@@ -24644,11 +22943,11 @@
       <c r="C71" s="6">
         <v>965910</v>
       </c>
-      <c r="D71" s="15">
-        <f t="shared" si="19"/>
+      <c r="D71" s="14">
+        <f t="shared" si="18"/>
         <v>432132</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="12">
         <f t="shared" si="22"/>
         <v>533778</v>
       </c>
@@ -24663,15 +22962,15 @@
       <c r="H71" s="6">
         <v>26857</v>
       </c>
-      <c r="I71" s="12">
-        <f t="shared" si="9"/>
+      <c r="I71" s="11">
+        <f t="shared" si="19"/>
         <v>7053470.4370179949</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J71" s="13">
         <f t="shared" si="25"/>
         <v>1904498.7146529562</v>
       </c>
-      <c r="K71" s="14">
+      <c r="K71" s="12">
         <f t="shared" si="24"/>
         <v>5148971.7223650385</v>
       </c>
@@ -24682,21 +22981,21 @@
         <v>54876</v>
       </c>
       <c r="N71" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>54950.214204308737</v>
       </c>
       <c r="O71" s="8">
         <v>1687</v>
       </c>
       <c r="P71" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1612.6997340987994</v>
       </c>
       <c r="Q71" s="5">
         <v>98</v>
       </c>
       <c r="R71" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.6812746529179739E-2</v>
       </c>
     </row>
@@ -24710,11 +23009,11 @@
       <c r="C72" s="6">
         <v>988451</v>
       </c>
-      <c r="D72" s="15">
-        <f t="shared" si="19"/>
+      <c r="D72" s="14">
+        <f t="shared" si="18"/>
         <v>466033</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="12">
         <f t="shared" si="22"/>
         <v>522418</v>
       </c>
@@ -24729,15 +23028,15 @@
       <c r="H72" s="6">
         <v>22541</v>
       </c>
-      <c r="I72" s="12">
-        <f t="shared" si="9"/>
+      <c r="I72" s="11">
+        <f t="shared" si="19"/>
         <v>7229434.4473007713</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="13">
         <f t="shared" si="25"/>
         <v>2145244.2159383036</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K72" s="12">
         <f t="shared" si="24"/>
         <v>5084190.2313624676</v>
       </c>
@@ -24748,21 +23047,21 @@
         <v>56245</v>
       </c>
       <c r="N72" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>56488.923760628721</v>
       </c>
       <c r="O72" s="8">
         <v>1369</v>
       </c>
       <c r="P72" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1464.723785570254</v>
       </c>
       <c r="Q72" s="5">
         <v>99</v>
       </c>
       <c r="R72" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.6902163081427405E-2</v>
       </c>
     </row>
@@ -24776,11 +23075,11 @@
       <c r="C73" s="6">
         <v>1012583</v>
       </c>
-      <c r="D73" s="15">
-        <f t="shared" si="19"/>
+      <c r="D73" s="14">
+        <f t="shared" si="18"/>
         <v>501560</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="12">
         <f t="shared" si="22"/>
         <v>511023</v>
       </c>
@@ -24795,15 +23094,15 @@
       <c r="H73" s="6">
         <v>24132</v>
       </c>
-      <c r="I73" s="12">
-        <f t="shared" si="9"/>
+      <c r="I73" s="11">
+        <f t="shared" si="19"/>
         <v>7500642.6735218512</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J73" s="14">
         <f>+I55</f>
         <v>2413496.1439588689</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K73" s="12">
         <f>+I73-J73</f>
         <v>5087146.5295629818</v>
       </c>
@@ -24814,21 +23113,21 @@
         <v>58355</v>
       </c>
       <c r="N73" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>57880.111944778429</v>
       </c>
       <c r="O73" s="8">
         <v>2110</v>
       </c>
       <c r="P73" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1318.0883982176772</v>
       </c>
       <c r="Q73" s="5">
         <v>100</v>
       </c>
       <c r="R73" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5.7629843677012155E-2</v>
       </c>
     </row>
@@ -24851,11 +23150,11 @@
         <v>101</v>
       </c>
       <c r="N74" s="7">
+        <f t="shared" si="9"/>
+        <v>59126.360825790623</v>
+      </c>
+      <c r="P74" s="7">
         <f t="shared" si="10"/>
-        <v>59126.360825790623</v>
-      </c>
-      <c r="P74" s="7">
-        <f t="shared" si="11"/>
         <v>1175.2220309582692</v>
       </c>
       <c r="Q74" s="5">
@@ -24881,11 +23180,11 @@
         <v>102</v>
       </c>
       <c r="N75" s="7">
+        <f t="shared" si="9"/>
+        <v>60232.50911923698</v>
+      </c>
+      <c r="P75" s="7">
         <f t="shared" si="10"/>
-        <v>60232.50911923698</v>
-      </c>
-      <c r="P75" s="7">
-        <f t="shared" si="11"/>
         <v>1038.2020799313348</v>
       </c>
       <c r="Q75" s="5">
@@ -24911,11 +23210,11 @@
         <v>103</v>
       </c>
       <c r="N76" s="7">
+        <f t="shared" si="9"/>
+        <v>61205.282318439014</v>
+      </c>
+      <c r="P76" s="7">
         <f t="shared" si="10"/>
-        <v>61205.282318439014</v>
-      </c>
-      <c r="P76" s="7">
-        <f t="shared" si="11"/>
         <v>908.72075741966432</v>
       </c>
       <c r="Q76" s="5">
@@ -24941,11 +23240,11 @@
         <v>104</v>
       </c>
       <c r="N77" s="7">
+        <f t="shared" si="9"/>
+        <v>62052.899030105604</v>
+      </c>
+      <c r="P77" s="7">
         <f t="shared" si="10"/>
-        <v>62052.899030105604</v>
-      </c>
-      <c r="P77" s="7">
-        <f t="shared" si="11"/>
         <v>788.07143487261555</v>
       </c>
       <c r="Q77" s="5">
@@ -24971,11 +23270,11 @@
         <v>105</v>
       </c>
       <c r="N78" s="7">
+        <f t="shared" si="9"/>
+        <v>62784.673231998204</v>
+      </c>
+      <c r="P78" s="7">
         <f t="shared" si="10"/>
-        <v>62784.673231998204</v>
-      </c>
-      <c r="P78" s="7">
-        <f t="shared" si="11"/>
         <v>677.15377975340107</v>
       </c>
       <c r="Q78" s="5">
@@ -25001,11 +23300,11 @@
         <v>106</v>
       </c>
       <c r="N79" s="7">
+        <f t="shared" si="9"/>
+        <v>63410.630013004222</v>
+      </c>
+      <c r="P79" s="7">
         <f t="shared" si="10"/>
-        <v>63410.630013004222</v>
-      </c>
-      <c r="P79" s="7">
-        <f t="shared" si="11"/>
         <v>576.49508830827426</v>
       </c>
       <c r="Q79" s="5">
@@ -25031,11 +23330,11 @@
         <v>107</v>
       </c>
       <c r="N80" s="7">
+        <f t="shared" si="9"/>
+        <v>63941.149415281732</v>
+      </c>
+      <c r="P80" s="7">
         <f t="shared" si="10"/>
-        <v>63941.149415281732</v>
-      </c>
-      <c r="P80" s="7">
-        <f t="shared" si="11"/>
         <v>486.28458131763881</v>
       </c>
       <c r="Q80" s="5">
@@ -25061,11 +23360,11 @@
         <v>108</v>
       </c>
       <c r="N81" s="7">
+        <f t="shared" si="9"/>
+        <v>64386.649574550946</v>
+      </c>
+      <c r="P81" s="7">
         <f t="shared" si="10"/>
-        <v>64386.649574550946</v>
-      </c>
-      <c r="P81" s="7">
-        <f t="shared" si="11"/>
         <v>406.41709865775209</v>
       </c>
       <c r="Q81" s="5">
@@ -25091,11 +23390,11 @@
         <v>109</v>
       </c>
       <c r="N82" s="7">
+        <f t="shared" si="9"/>
+        <v>64757.316746027573</v>
+      </c>
+      <c r="P82" s="7">
         <f t="shared" si="10"/>
-        <v>64757.316746027573</v>
-      </c>
-      <c r="P82" s="7">
-        <f t="shared" si="11"/>
         <v>336.54258505350168</v>
       </c>
       <c r="Q82" s="5">
@@ -25121,11 +23420,11 @@
         <v>110</v>
       </c>
       <c r="N83" s="7">
+        <f t="shared" si="9"/>
+        <v>65062.886280240382</v>
+      </c>
+      <c r="P83" s="7">
         <f t="shared" si="10"/>
-        <v>65062.886280240382</v>
-      </c>
-      <c r="P83" s="7">
-        <f t="shared" si="11"/>
         <v>276.11796565802734</v>
       </c>
       <c r="Q83" s="5">
@@ -25151,11 +23450,11 @@
         <v>111</v>
       </c>
       <c r="N84" s="7">
+        <f t="shared" si="9"/>
+        <v>65312.475399008777</v>
+      </c>
+      <c r="P84" s="7">
         <f t="shared" si="10"/>
-        <v>65312.475399008777</v>
-      </c>
-      <c r="P84" s="7">
-        <f t="shared" si="11"/>
         <v>224.45841260765675</v>
       </c>
       <c r="Q84" s="5">
@@ -25181,11 +23480,11 @@
         <v>112</v>
       </c>
       <c r="N85" s="7">
+        <f t="shared" si="9"/>
+        <v>65514.465883029123</v>
+      </c>
+      <c r="P85" s="7">
         <f t="shared" si="10"/>
-        <v>65514.465883029123</v>
-      </c>
-      <c r="P85" s="7">
-        <f t="shared" si="11"/>
         <v>180.78554090748622</v>
       </c>
       <c r="Q85" s="5">
@@ -25211,11 +23510,11 @@
         <v>113</v>
       </c>
       <c r="N86" s="7">
+        <f t="shared" si="9"/>
+        <v>65676.432621985296</v>
+      </c>
+      <c r="P86" s="7">
         <f t="shared" si="10"/>
-        <v>65676.432621985296</v>
-      </c>
-      <c r="P86" s="7">
-        <f t="shared" si="11"/>
         <v>144.27068116086582</v>
       </c>
       <c r="Q86" s="5">
@@ -25241,11 +23540,11 @@
         <v>114</v>
       </c>
       <c r="N87" s="7">
+        <f t="shared" si="9"/>
+        <v>65805.112438205513</v>
+      </c>
+      <c r="P87" s="7">
         <f t="shared" si="10"/>
-        <v>65805.112438205513</v>
-      </c>
-      <c r="P87" s="7">
-        <f t="shared" si="11"/>
         <v>114.07199976688867</v>
       </c>
       <c r="Q87" s="5">
@@ -28934,16 +27233,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J3:N109"/>
+  <dimension ref="J2:N109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28951,41 +27251,63 @@
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="10:14" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>82</v>
+      </c>
+      <c r="N2">
+        <v>88</v>
+      </c>
+    </row>
     <row r="3" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="L3" s="18">
-        <v>2748.0057249098668</v>
+      <c r="L3" s="17">
+        <v>2748.011541118376</v>
+      </c>
+      <c r="M3">
+        <v>63</v>
+      </c>
+      <c r="N3">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="L4" s="19">
-        <v>64.224304656151702</v>
+      <c r="L4" s="18">
+        <v>64.224399336417463</v>
+      </c>
+      <c r="M4">
+        <f>+M2-M3</f>
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <f>+N2-N3</f>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="L5" s="19">
-        <v>9.2751631031221944</v>
+      <c r="L5" s="18">
+        <v>9.2751840296651942</v>
       </c>
     </row>
     <row r="6" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <f>SUMXMY2(K10:K109,L10:L109)</f>
-        <v>83440.767061142134</v>
+        <v>83440.765167722449</v>
       </c>
     </row>
     <row r="9" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="20" t="s">
         <v>26</v>
       </c>
     </row>
@@ -28998,15 +27320,15 @@
       </c>
       <c r="L10">
         <f>$L$3*_xlfn.NORM.DIST(J10,$L$4,$L$5,TRUE)</f>
-        <v>1.2815923234939673E-8</v>
+        <v>1.2816411487624947E-8</v>
       </c>
       <c r="M10">
         <f>K10</f>
         <v>1</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="21">
         <f>$L$3*_xlfn.NORM.DIST(J10,$L$4,$L$5,FALSE)</f>
-        <v>9.6134921282205184E-9</v>
+        <v>9.6138296771332367E-9</v>
       </c>
     </row>
     <row r="11" spans="10:14" x14ac:dyDescent="0.3">
@@ -29018,15 +27340,15 @@
       </c>
       <c r="L11">
         <f t="shared" ref="L11:L74" si="0">$L$3*_xlfn.NORM.DIST(J11,$L$4,$L$5,TRUE)</f>
-        <v>2.698037306346857E-8</v>
+        <v>2.6981341223052354E-8</v>
       </c>
       <c r="M11">
         <f>K11-K10</f>
         <v>0</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="21">
         <f t="shared" ref="N11:N74" si="1">$L$3*_xlfn.NORM.DIST(J11,$L$4,$L$5,FALSE)</f>
-        <v>1.9931014205937105E-8</v>
+        <v>1.9931670384252986E-8</v>
       </c>
     </row>
     <row r="12" spans="10:14" x14ac:dyDescent="0.3">
@@ -29038,15 +27360,15 @@
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
-        <v>5.615613860719856E-8</v>
+        <v>5.6158032308505105E-8</v>
       </c>
       <c r="M12">
         <f t="shared" ref="M12:M75" si="2">K12-K11</f>
         <v>0</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="21">
         <f t="shared" si="1"/>
-        <v>4.0844103527546309E-8</v>
+        <v>4.0845360930043706E-8</v>
       </c>
     </row>
     <row r="13" spans="10:14" x14ac:dyDescent="0.3">
@@ -29058,15 +27380,15 @@
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>1.1555817331210632E-7</v>
+        <v>1.1556182633555585E-7</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="21">
         <f t="shared" si="1"/>
-        <v>8.2733440297892552E-8</v>
+        <v>8.2735814814165456E-8</v>
       </c>
     </row>
     <row r="14" spans="10:14" x14ac:dyDescent="0.3">
@@ -29078,15 +27400,15 @@
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>2.3510468189896453E-7</v>
+        <v>2.3511163007898614E-7</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="21">
         <f t="shared" si="1"/>
-        <v>1.6564737022046237E-7</v>
+        <v>1.6565178781311566E-7</v>
       </c>
     </row>
     <row r="15" spans="10:14" x14ac:dyDescent="0.3">
@@ -29098,15 +27420,15 @@
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>4.7291406767610625E-7</v>
+        <v>4.7292709492159607E-7</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="21">
         <f t="shared" si="1"/>
-        <v>3.2782325116642654E-7</v>
+        <v>3.2783134478291858E-7</v>
       </c>
     </row>
     <row r="16" spans="10:14" x14ac:dyDescent="0.3">
@@ -29118,15 +27440,15 @@
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>9.4051741132896334E-7</v>
+        <v>9.4054148059969461E-7</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="21">
         <f t="shared" si="1"/>
-        <v>6.4127853974597702E-7</v>
+        <v>6.4129313635482241E-7</v>
       </c>
     </row>
     <row r="17" spans="10:14" x14ac:dyDescent="0.3">
@@ -29138,15 +27460,15 @@
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>1.8493476131560955E-6</v>
+        <v>1.8493914201870023E-6</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17" s="21">
         <f t="shared" si="1"/>
-        <v>1.2399535207409825E-6</v>
+        <v>1.2399794195908675E-6</v>
       </c>
     </row>
     <row r="18" spans="10:14" x14ac:dyDescent="0.3">
@@ -29158,15 +27480,15 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>3.5953483536958919E-6</v>
+        <v>3.5954268603998181E-6</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18" s="21">
         <f t="shared" si="1"/>
-        <v>2.3698226802106968E-6</v>
+        <v>2.369867860005586E-6</v>
       </c>
     </row>
     <row r="19" spans="10:14" x14ac:dyDescent="0.3">
@@ -29178,15 +27500,15 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>6.9109521607099801E-6</v>
+        <v>6.9110906208173928E-6</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N19" s="21">
         <f t="shared" si="1"/>
-        <v>4.4769066930016203E-6</v>
+        <v>4.4769841200549433E-6</v>
       </c>
     </row>
     <row r="20" spans="10:14" x14ac:dyDescent="0.3">
@@ -29198,15 +27520,15 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>1.3134490546920372E-5</v>
+        <v>1.3134730718010939E-5</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="21">
         <f t="shared" si="1"/>
-        <v>8.3597247918331615E-6</v>
+        <v>8.3598550142484694E-6</v>
       </c>
     </row>
     <row r="21" spans="10:14" x14ac:dyDescent="0.3">
@@ -29218,15 +27540,15 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>2.4681476989409284E-5</v>
+        <v>2.468188639384514E-5</v>
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="21">
         <f t="shared" si="1"/>
-        <v>1.5429706452567615E-5</v>
+        <v>1.5429921116864143E-5</v>
       </c>
     </row>
     <row r="22" spans="10:14" x14ac:dyDescent="0.3">
@@ -29238,15 +27560,15 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>4.5858089159872865E-5</v>
+        <v>4.5858774316181466E-5</v>
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="21">
         <f t="shared" si="1"/>
-        <v>2.8149785708699285E-5</v>
+        <v>2.8150131948385757E-5</v>
       </c>
     </row>
     <row r="23" spans="10:14" x14ac:dyDescent="0.3">
@@ -29258,15 +27580,15 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>8.4246563921624423E-5</v>
+        <v>8.4247688217252997E-5</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="21">
         <f t="shared" si="1"/>
-        <v>5.0762647969707776E-5</v>
+        <v>5.0763193153525951E-5</v>
       </c>
     </row>
     <row r="24" spans="10:14" x14ac:dyDescent="0.3">
@@ -29278,15 +27600,15 @@
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>1.5303283737118785E-4</v>
+        <v>1.5303464330668098E-4</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N24" s="22">
+      <c r="N24" s="21">
         <f t="shared" si="1"/>
-        <v>9.0482624640496112E-5</v>
+        <v>9.048346000081849E-5</v>
       </c>
     </row>
     <row r="25" spans="10:14" x14ac:dyDescent="0.3">
@@ -29298,15 +27620,15 @@
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>2.7486424445824341E-4</v>
+        <v>2.7486707768458688E-4</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="21">
         <f t="shared" si="1"/>
-        <v>1.5941818378284366E-4</v>
+        <v>1.5941942360030929E-4</v>
       </c>
     </row>
     <row r="26" spans="10:14" x14ac:dyDescent="0.3">
@@ -29318,15 +27640,15 @@
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>4.8815562005334948E-4</v>
+        <v>4.8815994780392611E-4</v>
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="21">
         <f t="shared" si="1"/>
-        <v>2.7762736440953018E-4</v>
+        <v>2.7762913413410811E-4</v>
       </c>
     </row>
     <row r="27" spans="10:14" x14ac:dyDescent="0.3">
@@ -29338,15 +27660,15 @@
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>8.572554882786737E-4</v>
+        <v>8.5726189561424694E-4</v>
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N27" s="21">
         <f t="shared" si="1"/>
-        <v>4.7790153938455355E-4</v>
+        <v>4.7790394047415971E-4</v>
       </c>
     </row>
     <row r="28" spans="10:14" x14ac:dyDescent="0.3">
@@ -29358,15 +27680,15 @@
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>1.4886067432416988E-3</v>
+        <v>1.4886158741053335E-3</v>
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="22">
+      <c r="N28" s="21">
         <f t="shared" si="1"/>
-        <v>8.1314188957040863E-4</v>
+        <v>8.131449197140674E-4</v>
       </c>
     </row>
     <row r="29" spans="10:14" x14ac:dyDescent="0.3">
@@ -29378,15 +27700,15 @@
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>2.5560745148707994E-3</v>
+        <v>2.5560868969888143E-3</v>
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="21">
         <f t="shared" si="1"/>
-        <v>1.3675587285256331E-3</v>
+        <v>1.3675621216385216E-3</v>
       </c>
     </row>
     <row r="30" spans="10:14" x14ac:dyDescent="0.3">
@@ -29398,15 +27720,15 @@
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>4.3400753963932755E-3</v>
+        <v>4.3400910433635123E-3</v>
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="21">
         <f t="shared" si="1"/>
-        <v>2.2734079946473492E-3</v>
+        <v>2.2734109234378605E-3</v>
       </c>
     </row>
     <row r="31" spans="10:14" x14ac:dyDescent="0.3">
@@ -29418,15 +27740,15 @@
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>7.2871554228689595E-3</v>
+        <v>7.2871730347656921E-3</v>
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N31" s="21">
         <f t="shared" si="1"/>
-        <v>3.7356013698975231E-3</v>
+        <v>3.7356019222855477E-3</v>
       </c>
     </row>
     <row r="32" spans="10:14" x14ac:dyDescent="0.3">
@@ -29438,15 +27760,15 @@
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>1.209937425108982E-2</v>
+        <v>1.2099389725176641E-2</v>
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="21">
         <f t="shared" si="1"/>
-        <v>6.0672992417396335E-3</v>
+        <v>6.0672935379547264E-3</v>
       </c>
     </row>
     <row r="33" spans="10:14" x14ac:dyDescent="0.3">
@@ -29458,15 +27780,15 @@
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>1.9866411432477398E-2</v>
+        <v>1.9866415233671639E-2</v>
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="21">
         <f t="shared" si="1"/>
-        <v>9.7405179294739307E-3</v>
+        <v>9.740498686195748E-3</v>
       </c>
     </row>
     <row r="34" spans="10:14" x14ac:dyDescent="0.3">
@@ -29478,15 +27800,15 @@
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>3.2257857193130533E-2</v>
+        <v>3.2257829902297919E-2</v>
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="22">
+      <c r="N34" s="21">
         <f t="shared" si="1"/>
-        <v>1.5456830024411387E-2</v>
+        <v>1.5456784293175917E-2</v>
       </c>
     </row>
     <row r="35" spans="10:14" x14ac:dyDescent="0.3">
@@ -29498,15 +27820,15 @@
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>5.1798784037124679E-2</v>
+        <v>5.1798689074570248E-2</v>
       </c>
       <c r="M35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="21">
         <f t="shared" si="1"/>
-        <v>2.4244350729808021E-2</v>
+        <v>2.4244256437669844E-2</v>
       </c>
     </row>
     <row r="36" spans="10:14" x14ac:dyDescent="0.3">
@@ -29518,15 +27840,15 @@
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>8.2258435006028877E-2</v>
+        <v>8.2258207097828787E-2</v>
       </c>
       <c r="M36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N36" s="21">
         <f t="shared" si="1"/>
-        <v>3.7588278072129909E-2</v>
+        <v>3.7588098874218559E-2</v>
       </c>
     </row>
     <row r="37" spans="10:14" x14ac:dyDescent="0.3">
@@ -29538,15 +27860,15 @@
       </c>
       <c r="L37">
         <f t="shared" si="0"/>
-        <v>0.12918959337883099</v>
+        <v>0.12918912077782349</v>
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N37" s="22">
+      <c r="N37" s="21">
         <f t="shared" si="1"/>
-        <v>5.7603125688762934E-2</v>
+        <v>5.7602803509741493E-2</v>
       </c>
     </row>
     <row r="38" spans="10:14" x14ac:dyDescent="0.3">
@@ -29558,15 +27880,15 @@
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
-        <v>0.20066460176317899</v>
+        <v>0.20066369954492475</v>
       </c>
       <c r="M38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N38" s="22">
+      <c r="N38" s="21">
         <f t="shared" si="1"/>
-        <v>8.7255219396565956E-2</v>
+        <v>8.7254663901556048E-2</v>
       </c>
     </row>
     <row r="39" spans="10:14" x14ac:dyDescent="0.3">
@@ -29578,15 +27900,15 @@
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
-        <v>0.3082624901866694</v>
+        <v>0.30826086111789885</v>
       </c>
       <c r="M39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39" s="22">
+      <c r="N39" s="21">
         <f t="shared" si="1"/>
-        <v>0.13064371625417243</v>
+        <v>0.13064279036727916</v>
       </c>
     </row>
     <row r="40" spans="10:14" x14ac:dyDescent="0.3">
@@ -29598,15 +27920,15 @@
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
-        <v>0.46836932674491227</v>
+        <v>0.46836650529450824</v>
       </c>
       <c r="M40">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N40" s="22">
+      <c r="N40" s="21">
         <f t="shared" si="1"/>
-        <v>0.19334697536939441</v>
+        <v>0.19334547587629083</v>
       </c>
     </row>
     <row r="41" spans="10:14" x14ac:dyDescent="0.3">
@@ -29618,15 +27940,15 @@
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>0.70385939832427746</v>
+        <v>0.70385467241283384</v>
       </c>
       <c r="M41">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N41" s="22">
+      <c r="N41" s="21">
         <f t="shared" si="1"/>
-        <v>0.28283814833332832</v>
+        <v>0.28283578059977427</v>
       </c>
     </row>
     <row r="42" spans="10:14" x14ac:dyDescent="0.3">
@@ -29638,15 +27960,15 @@
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
-        <v>1.0462264207229475</v>
+        <v>1.0462187248854191</v>
       </c>
       <c r="M42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N42" s="22">
+      <c r="N42" s="21">
         <f t="shared" si="1"/>
-        <v>0.40896894780892018</v>
+        <v>0.40896529376490287</v>
       </c>
     </row>
     <row r="43" spans="10:14" x14ac:dyDescent="0.3">
@@ -29658,15 +27980,15 @@
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>1.5382295340391337</v>
+        <v>1.5382173069540015</v>
       </c>
       <c r="M43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N43" s="22">
+      <c r="N43" s="21">
         <f t="shared" si="1"/>
-        <v>0.58451334221855167</v>
+        <v>0.58450782104959442</v>
       </c>
     </row>
     <row r="44" spans="10:14" x14ac:dyDescent="0.3">
@@ -29678,15 +28000,15 @@
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>2.2371059404893323</v>
+        <v>2.2370869395074884</v>
       </c>
       <c r="M44">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N44" s="22">
+      <c r="N44" s="21">
         <f t="shared" si="1"/>
-        <v>0.82575320810288566</v>
+        <v>0.82574502960853435</v>
       </c>
     </row>
     <row r="45" spans="10:14" x14ac:dyDescent="0.3">
@@ -29698,15 +28020,15 @@
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>3.2183781801072269</v>
+        <v>3.2183492457448968</v>
       </c>
       <c r="M45">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N45" s="22">
+      <c r="N45" s="21">
         <f t="shared" si="1"/>
-        <v>1.1530757967548126</v>
+        <v>1.1530639081247167</v>
       </c>
     </row>
     <row r="46" spans="10:14" x14ac:dyDescent="0.3">
@@ -29718,15 +28040,15 @@
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>4.5802469262926335</v>
+        <v>4.5802036909222279</v>
       </c>
       <c r="M46">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="N46" s="22">
+      <c r="N46" s="21">
         <f t="shared" si="1"/>
-        <v>1.5915386470871982</v>
+        <v>1.591521674934159</v>
       </c>
     </row>
     <row r="47" spans="10:14" x14ac:dyDescent="0.3">
@@ -29738,15 +28060,15 @@
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>6.448508161718868</v>
+        <v>6.4484446991990847</v>
       </c>
       <c r="M47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N47" s="22">
+      <c r="N47" s="21">
         <f t="shared" si="1"/>
-        <v>2.1713421733874259</v>
+        <v>2.1713183642589402</v>
       </c>
     </row>
     <row r="48" spans="10:14" x14ac:dyDescent="0.3">
@@ -29758,15 +28080,15 @@
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>8.9818661420911141</v>
+        <v>8.9817745590943137</v>
       </c>
       <c r="M48">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N48" s="22">
+      <c r="N48" s="21">
         <f t="shared" si="1"/>
-        <v>2.9281349763461963</v>
+        <v>2.9281021405594676</v>
       </c>
     </row>
     <row r="49" spans="10:14" x14ac:dyDescent="0.3">
@@ -29778,15 +28100,15 @@
       </c>
       <c r="L49">
         <f t="shared" si="0"/>
-        <v>12.377431821813451</v>
+        <v>12.377301797325948</v>
       </c>
       <c r="M49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N49" s="22">
+      <c r="N49" s="21">
         <f t="shared" si="1"/>
-        <v>3.9030639118635748</v>
+        <v>3.9030193772630857</v>
       </c>
     </row>
     <row r="50" spans="10:14" x14ac:dyDescent="0.3">
@@ -29798,15 +28120,15 @@
       </c>
       <c r="L50">
         <f t="shared" si="0"/>
-        <v>16.876103740944735</v>
+        <v>16.875922027881138</v>
       </c>
       <c r="M50">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N50" s="22">
+      <c r="N50" s="21">
         <f t="shared" si="1"/>
-        <v>5.1424725171084589</v>
+        <v>5.1424131010522141</v>
       </c>
     </row>
     <row r="51" spans="10:14" x14ac:dyDescent="0.3">
@@ -29818,15 +28140,15 @@
       </c>
       <c r="L51">
         <f t="shared" si="0"/>
-        <v>22.767430674252221</v>
+        <v>22.767180586175449</v>
       </c>
       <c r="M51">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="N51" s="22">
+      <c r="N51" s="21">
         <f t="shared" si="1"/>
-        <v>6.6971502422026958</v>
+        <v>6.6970722514993621</v>
       </c>
     </row>
     <row r="52" spans="10:14" x14ac:dyDescent="0.3">
@@ -29838,15 +28160,15 @@
       </c>
       <c r="L52">
         <f t="shared" si="0"/>
-        <v>30.393461273357207</v>
+        <v>30.393122189493706</v>
       </c>
       <c r="M52">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N52" s="22">
+      <c r="N52" s="21">
         <f t="shared" si="1"/>
-        <v>8.6210437766717849</v>
+        <v>8.6209430460176915</v>
       </c>
     </row>
     <row r="53" spans="10:14" x14ac:dyDescent="0.3">
@@ -29858,15 +28180,15 @@
       </c>
       <c r="L53">
         <f t="shared" si="0"/>
-        <v>40.151006693395779</v>
+        <v>40.150553625729735</v>
       </c>
       <c r="M53">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="N53" s="22">
+      <c r="N53" s="21">
         <f t="shared" si="1"/>
-        <v>10.969362909010618</v>
+        <v>10.969234888386163</v>
       </c>
     </row>
     <row r="54" spans="10:14" x14ac:dyDescent="0.3">
@@ -29878,15 +28200,15 @@
       </c>
       <c r="L54">
         <f t="shared" si="0"/>
-        <v>52.49169091549048</v>
+        <v>52.491094191634957</v>
       </c>
       <c r="M54">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="N54" s="22">
+      <c r="N54" s="21">
         <f t="shared" si="1"/>
-        <v>13.796048272660265</v>
+        <v>13.795888172825022</v>
       </c>
     </row>
     <row r="55" spans="10:14" x14ac:dyDescent="0.3">
@@ -29898,15 +28220,15 @@
       </c>
       <c r="L55">
         <f t="shared" si="0"/>
-        <v>67.919154108796832</v>
+        <v>67.918379232208864</v>
       </c>
       <c r="M55">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N55" s="21">
         <f t="shared" si="1"/>
-        <v>17.150617124182173</v>
+        <v>17.150420126607212</v>
       </c>
     </row>
     <row r="56" spans="10:14" x14ac:dyDescent="0.3">
@@ -29918,15 +28240,15 @@
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>86.982820130077087</v>
+        <v>86.981827883455594</v>
       </c>
       <c r="M56">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="N56" s="22">
+      <c r="N56" s="21">
         <f t="shared" si="1"/>
-        <v>21.074464307761716</v>
+        <v>21.074225840931497</v>
       </c>
     </row>
     <row r="57" spans="10:14" x14ac:dyDescent="0.3">
@@ -29938,15 +28260,15 @@
       </c>
       <c r="L57">
         <f t="shared" si="0"/>
-        <v>110.26775067017735</v>
+        <v>110.26649752695566</v>
       </c>
       <c r="M57">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="N57" s="22">
+      <c r="N57" s="21">
         <f t="shared" si="1"/>
-        <v>25.596765069485865</v>
+        <v>25.596481147548893</v>
       </c>
     </row>
     <row r="58" spans="10:14" x14ac:dyDescent="0.3">
@@ -29958,15 +28280,15 @@
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>138.38029139015032</v>
+        <v>138.37873029146007</v>
       </c>
       <c r="M58">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N58" s="22">
+      <c r="N58" s="21">
         <f t="shared" si="1"/>
-        <v>30.730198585605713</v>
+        <v>30.729866198143331</v>
       </c>
     </row>
     <row r="59" spans="10:14" x14ac:dyDescent="0.3">
@@ -29978,15 +28300,15 @@
       </c>
       <c r="L59">
         <f t="shared" si="0"/>
-        <v>171.92946865096724</v>
+        <v>171.9275501902828</v>
       </c>
       <c r="M59">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="N59" s="22">
+      <c r="N59" s="21">
         <f t="shared" si="1"/>
-        <v>36.466778326572914</v>
+        <v>36.466395860329314</v>
       </c>
     </row>
     <row r="60" spans="10:14" x14ac:dyDescent="0.3">
@@ -29998,15 +28320,15 @@
       </c>
       <c r="L60">
         <f t="shared" si="0"/>
-        <v>211.50440983105358</v>
+        <v>211.50208386559908</v>
       </c>
       <c r="M60">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="N60" s="22">
+      <c r="N60" s="21">
         <f t="shared" si="1"/>
-        <v>42.774128850263487</v>
+        <v>42.773696515822188</v>
       </c>
     </row>
     <row r="61" spans="10:14" x14ac:dyDescent="0.3">
@@ -30018,15 +28340,15 @@
       </c>
       <c r="L61">
         <f t="shared" si="0"/>
-        <v>257.64841738271116</v>
+        <v>257.64563506015645</v>
       </c>
       <c r="M61">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="N61" s="22">
+      <c r="N61" s="21">
         <f t="shared" si="1"/>
-        <v>49.592579201247744</v>
+        <v>49.592099430819218</v>
       </c>
     </row>
     <row r="62" spans="10:14" x14ac:dyDescent="0.3">
@@ -30038,15 +28360,15 @@
       </c>
       <c r="L62">
         <f t="shared" si="0"/>
-        <v>310.83069960094582</v>
+        <v>310.82741575350155</v>
       </c>
       <c r="M62">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="N62" s="22">
+      <c r="N62" s="21">
         <f t="shared" si="1"/>
-        <v>56.83344262866548</v>
+        <v>56.832920406428308</v>
       </c>
     </row>
     <row r="63" spans="10:14" x14ac:dyDescent="0.3">
@@ -30058,15 +28380,15 @@
       </c>
       <c r="L63">
         <f t="shared" si="0"/>
-        <v>371.41711532518758</v>
+        <v>371.41329114354988</v>
       </c>
       <c r="M63">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="N63" s="22">
+      <c r="N63" s="21">
         <f t="shared" si="1"/>
-        <v>64.378814921590845</v>
+        <v>64.378258006420239</v>
       </c>
     </row>
     <row r="64" spans="10:14" x14ac:dyDescent="0.3">
@@ -30078,15 +28400,15 @@
       </c>
       <c r="L64">
         <f t="shared" si="0"/>
-        <v>439.64158697702311</v>
+        <v>439.63719283726209</v>
       </c>
       <c r="M64">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="N64" s="22">
+      <c r="N64" s="21">
         <f t="shared" si="1"/>
-        <v>72.083146892755664</v>
+        <v>72.082565895496316</v>
       </c>
     </row>
     <row r="65" spans="10:14" x14ac:dyDescent="0.3">
@@ -30098,15 +28420,15 @@
       </c>
       <c r="L65">
         <f t="shared" si="0"/>
-        <v>515.58003772272468</v>
+        <v>515.57505600434945</v>
       </c>
       <c r="M65">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="N65" s="22">
+      <c r="N65" s="21">
         <f t="shared" si="1"/>
-        <v>79.776732459093978</v>
+        <v>79.776140743247225</v>
       </c>
     </row>
     <row r="66" spans="10:14" x14ac:dyDescent="0.3">
@@ -30118,15 +28440,15 @@
       </c>
       <c r="L66">
         <f t="shared" si="0"/>
-        <v>599.12877988237517</v>
+        <v>599.12320758986993</v>
       </c>
       <c r="M66">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="N66" s="22">
+      <c r="N66" s="21">
         <f t="shared" si="1"/>
-        <v>87.271109310240831</v>
+        <v>87.270522696013387</v>
       </c>
     </row>
     <row r="67" spans="10:14" x14ac:dyDescent="0.3">
@@ -30138,15 +28460,15 @@
       </c>
       <c r="L67">
         <f t="shared" si="0"/>
-        <v>689.98919807076402</v>
+        <v>689.98304905798443</v>
       </c>
       <c r="M67">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="N67" s="22">
+      <c r="N67" s="21">
         <f t="shared" si="1"/>
-        <v>94.366205970596866</v>
+        <v>94.365642237105178</v>
       </c>
     </row>
     <row r="68" spans="10:14" x14ac:dyDescent="0.3">
@@ -30158,15 +28480,15 @@
       </c>
       <c r="L68">
         <f t="shared" si="0"/>
-        <v>787.66032068419838</v>
+        <v>787.6536272843889</v>
       </c>
       <c r="M68">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-      <c r="N68" s="22">
+      <c r="N68" s="21">
         <f t="shared" si="1"/>
-        <v>100.85890259466572</v>
+        <v>100.8583807925435</v>
       </c>
     </row>
     <row r="69" spans="10:14" x14ac:dyDescent="0.3">
@@ -30178,15 +28500,15 @@
       </c>
       <c r="L69">
         <f t="shared" si="0"/>
-        <v>891.4404626934587</v>
+        <v>891.43327657909242</v>
       </c>
       <c r="M69">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="N69" s="22">
+      <c r="N69" s="21">
         <f t="shared" si="1"/>
-        <v>106.55252076213441</v>
+        <v>106.55206036719683</v>
       </c>
     </row>
     <row r="70" spans="10:14" x14ac:dyDescent="0.3">
@@ -30198,15 +28520,15 @@
       </c>
       <c r="L70">
         <f t="shared" si="0"/>
-        <v>1000.4385746504022</v>
+        <v>1000.4309667865734</v>
       </c>
       <c r="M70">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="N70" s="22">
+      <c r="N70" s="21">
         <f t="shared" si="1"/>
-        <v>111.26663767414522</v>
+        <v>111.26625763014415</v>
       </c>
     </row>
     <row r="71" spans="10:14" x14ac:dyDescent="0.3">
@@ -30218,15 +28540,15 @@
       </c>
       <c r="L71">
         <f t="shared" si="0"/>
-        <v>1113.5952876687618</v>
+        <v>1113.5873472793669</v>
       </c>
       <c r="M71">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="N71" s="22">
+      <c r="N71" s="21">
         <f t="shared" si="1"/>
-        <v>114.84654813071501</v>
+        <v>114.84626584351086</v>
       </c>
     </row>
     <row r="72" spans="10:14" x14ac:dyDescent="0.3">
@@ -30238,15 +28560,15 @@
       </c>
       <c r="L72">
         <f t="shared" si="0"/>
-        <v>1229.7129558066104</v>
+        <v>1229.7047883400364</v>
       </c>
       <c r="M72">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="N72" s="22">
+      <c r="N72" s="21">
         <f t="shared" si="1"/>
-        <v>117.17168471853479</v>
+        <v>117.17151507332845</v>
       </c>
     </row>
     <row r="73" spans="10:14" x14ac:dyDescent="0.3">
@@ -30258,15 +28580,15 @@
       </c>
       <c r="L73">
         <f t="shared" si="0"/>
-        <v>1347.4933279201198</v>
+        <v>1347.4850520748259</v>
       </c>
       <c r="M73">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="N73" s="22">
+      <c r="N73" s="21">
         <f t="shared" si="1"/>
-        <v>118.16235779485677</v>
+        <v>118.16231227104511</v>
       </c>
     </row>
     <row r="74" spans="10:14" x14ac:dyDescent="0.3">
@@ -30278,15 +28600,15 @@
       </c>
       <c r="L74">
         <f t="shared" si="0"/>
-        <v>1465.5808943101074</v>
+        <v>1465.5726382535499</v>
       </c>
       <c r="M74">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="N74" s="22">
+      <c r="N74" s="21">
         <f t="shared" si="1"/>
-        <v>117.78428992992504</v>
+        <v>117.78437588392049</v>
       </c>
     </row>
     <row r="75" spans="10:14" x14ac:dyDescent="0.3">
@@ -30298,15 +28620,15 @@
       </c>
       <c r="L75">
         <f t="shared" ref="L75:L109" si="3">$L$3*_xlfn.NORM.DIST(J75,$L$4,$L$5,TRUE)</f>
-        <v>1582.6095071047962</v>
+        <v>1582.6014040844041</v>
       </c>
       <c r="M75">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="N75" s="22">
+      <c r="N75" s="21">
         <f t="shared" ref="N75:N109" si="4">$L$3*_xlfn.NORM.DIST(J75,$L$4,$L$5,FALSE)</f>
-        <v>116.05058497779378</v>
+        <v>116.05080515286626</v>
       </c>
     </row>
     <row r="76" spans="10:14" x14ac:dyDescent="0.3">
@@ -30318,15 +28640,15 @@
       </c>
       <c r="L76">
         <f t="shared" si="3"/>
-        <v>1697.2496122816597</v>
+        <v>1697.2417958773783</v>
       </c>
       <c r="M76">
         <f t="shared" ref="M76:M109" si="5">K76-K75</f>
         <v>121</v>
       </c>
-      <c r="N76" s="22">
+      <c r="N76" s="21">
         <f t="shared" si="4"/>
-        <v>113.02097402429095</v>
+        <v>113.02132632908641</v>
       </c>
     </row>
     <row r="77" spans="10:14" x14ac:dyDescent="0.3">
@@ -30338,15 +28660,15 @@
       </c>
       <c r="L77">
         <f t="shared" si="3"/>
-        <v>1808.2533821877885</v>
+        <v>1808.2459814867293</v>
       </c>
       <c r="M77">
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="N77" s="22">
+      <c r="N77" s="21">
         <f t="shared" si="4"/>
-        <v>108.79839872666938</v>
+        <v>108.7988763022399</v>
       </c>
     </row>
     <row r="78" spans="10:14" x14ac:dyDescent="0.3">
@@ -30358,15 +28680,15 @@
       </c>
       <c r="L78">
         <f t="shared" si="3"/>
-        <v>1914.4952054085763</v>
+        <v>1914.4883403902381</v>
       </c>
       <c r="M78">
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="N78" s="22">
+      <c r="N78" s="21">
         <f t="shared" si="4"/>
-        <v>103.52320460520973</v>
+        <v>103.52379617642531</v>
       </c>
     </row>
     <row r="79" spans="10:14" x14ac:dyDescent="0.3">
@@ -30378,15 +28700,15 @@
       </c>
       <c r="L79">
         <f t="shared" si="3"/>
-        <v>2015.0053586426518</v>
+        <v>2014.9991360471276</v>
       </c>
       <c r="M79">
         <f t="shared" si="5"/>
         <v>101</v>
       </c>
-      <c r="N79" s="22">
+      <c r="N79" s="21">
         <f t="shared" si="4"/>
-        <v>97.365401044192836</v>
+        <v>97.366091527837852</v>
       </c>
     </row>
     <row r="80" spans="10:14" x14ac:dyDescent="0.3">
@@ -30398,15 +28720,15 @@
       </c>
       <c r="L80">
         <f t="shared" si="3"/>
-        <v>2108.9952155463297</v>
+        <v>2108.9897254595448</v>
       </c>
       <c r="M80">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="N80" s="22">
+      <c r="N80" s="21">
         <f t="shared" si="4"/>
-        <v>90.515582944166269</v>
+        <v>90.516354265348937</v>
       </c>
     </row>
     <row r="81" spans="10:14" x14ac:dyDescent="0.3">
@@ -30418,15 +28740,15 @@
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
-        <v>2195.8729874989494</v>
+        <v>2195.868300832266</v>
       </c>
       <c r="M81">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="N81" s="22">
+      <c r="N81" s="21">
         <f t="shared" si="4"/>
-        <v>83.175188618260634</v>
+        <v>83.176020671100218</v>
       </c>
     </row>
     <row r="82" spans="10:14" x14ac:dyDescent="0.3">
@@ -30438,15 +28760,15 @@
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>2275.2496790052182</v>
+        <v>2275.2458459775648</v>
       </c>
       <c r="M82">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="N82" s="22">
+      <c r="N82" s="21">
         <f t="shared" si="4"/>
-        <v>75.546784128382228</v>
+        <v>75.547655807772571</v>
       </c>
     </row>
     <row r="83" spans="10:14" x14ac:dyDescent="0.3">
@@ -30458,15 +28780,15 @@
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
-        <v>2346.9356122753697</v>
+        <v>2346.9326619312342</v>
       </c>
       <c r="M83">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="N83" s="22">
+      <c r="N83" s="21">
         <f t="shared" si="4"/>
-        <v>67.825017682388903</v>
+        <v>67.825907911646794</v>
       </c>
     </row>
     <row r="84" spans="10:14" x14ac:dyDescent="0.3">
@@ -30478,15 +28800,15 @@
       </c>
       <c r="L84">
         <f t="shared" si="3"/>
-        <v>2410.9284730333179</v>
+        <v>2410.9264137567097</v>
       </c>
       <c r="M84">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="N84" s="22">
+      <c r="N84" s="21">
         <f t="shared" si="4"/>
-        <v>60.188787592673883</v>
+        <v>60.189676276893429</v>
       </c>
     </row>
     <row r="85" spans="10:14" x14ac:dyDescent="0.3">
@@ -30498,15 +28820,15 @@
       </c>
       <c r="L85">
         <f t="shared" si="3"/>
-        <v>2467.3943058479936</v>
+        <v>2467.3931267673884</v>
       </c>
       <c r="M85">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="N85" s="22">
+      <c r="N85" s="21">
         <f t="shared" si="4"/>
-        <v>52.795027544599733</v>
+        <v>52.795896390587963</v>
       </c>
     </row>
     <row r="86" spans="10:14" x14ac:dyDescent="0.3">
@@ -30518,15 +28840,15 @@
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
-        <v>2516.6432110238648</v>
+        <v>2516.6428841514748</v>
       </c>
       <c r="M86">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="N86" s="22">
+      <c r="N86" s="21">
         <f t="shared" si="4"/>
-        <v>45.774350667239986</v>
+        <v>45.775183826426485</v>
       </c>
     </row>
     <row r="87" spans="10:14" x14ac:dyDescent="0.3">
@@ -30538,15 +28860,15 @@
       </c>
       <c r="L87">
         <f t="shared" si="3"/>
-        <v>2559.1016528501887</v>
+        <v>2559.1021357641939</v>
       </c>
       <c r="M87">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="N87" s="22">
+      <c r="N87" s="21">
         <f t="shared" si="4"/>
-        <v>39.228627154972287</v>
+        <v>39.22941166371487</v>
       </c>
     </row>
     <row r="88" spans="10:14" x14ac:dyDescent="0.3">
@@ -30558,15 +28880,15 @@
       </c>
       <c r="L88">
         <f t="shared" si="3"/>
-        <v>2595.2832848409407</v>
+        <v>2595.2845237030251</v>
       </c>
       <c r="M88">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="N88" s="22">
+      <c r="N88" s="21">
         <f t="shared" si="4"/>
-        <v>33.230415632945153</v>
+        <v>33.231141643143282</v>
       </c>
     </row>
     <row r="89" spans="10:14" x14ac:dyDescent="0.3">
@@ -30578,15 +28900,15 @@
       </c>
       <c r="L89">
         <f t="shared" si="3"/>
-        <v>2625.7600507656675</v>
+        <v>2625.761983467833</v>
       </c>
       <c r="M89">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="N89" s="22">
+      <c r="N89" s="21">
         <f t="shared" si="4"/>
-        <v>27.824039598695073</v>
+        <v>27.824700408676378</v>
       </c>
     </row>
     <row r="90" spans="10:14" x14ac:dyDescent="0.3">
@@ -30598,15 +28920,15 @@
       </c>
       <c r="L90">
         <f t="shared" si="3"/>
-        <v>2651.1350614271391</v>
+        <v>2651.1376206790796</v>
       </c>
       <c r="M90">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="N90" s="22">
+      <c r="N90" s="21">
         <f t="shared" si="4"/>
-        <v>23.028006223447417</v>
+        <v>23.028598133190354</v>
       </c>
     </row>
     <row r="91" spans="10:14" x14ac:dyDescent="0.3">
@@ -30618,15 +28940,15 @@
       </c>
       <c r="L91">
         <f t="shared" si="3"/>
-        <v>2672.0184136161929</v>
+        <v>2672.0215298140024</v>
       </c>
       <c r="M91">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="N91" s="22">
+      <c r="N91" s="21">
         <f t="shared" si="4"/>
-        <v>18.838409777493677</v>
+        <v>18.838931802377871</v>
       </c>
     </row>
     <row r="92" spans="10:14" x14ac:dyDescent="0.3">
@@ -30638,15 +28960,15 @@
       </c>
       <c r="L92">
         <f t="shared" si="3"/>
-        <v>2689.0067486152598</v>
+        <v>2689.0103523696553</v>
       </c>
       <c r="M92">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="N92" s="22">
+      <c r="N92" s="21">
         <f t="shared" si="4"/>
-        <v>15.232945451434734</v>
+        <v>15.233398934427317</v>
       </c>
     </row>
     <row r="93" spans="10:14" x14ac:dyDescent="0.3">
@@ -30658,15 +28980,15 @@
       </c>
       <c r="L93">
         <f t="shared" si="3"/>
-        <v>2702.6669796071496</v>
+        <v>2702.6710038503661</v>
       </c>
       <c r="M93">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="N93" s="22">
+      <c r="N93" s="21">
         <f t="shared" si="4"/>
-        <v>12.17517690514412</v>
+        <v>12.175565068730835</v>
       </c>
     </row>
     <row r="94" spans="10:14" x14ac:dyDescent="0.3">
@@ -30678,15 +29000,15 @@
       </c>
       <c r="L94">
         <f t="shared" si="3"/>
-        <v>2713.5242809556134</v>
+        <v>2713.5286625865019</v>
       </c>
       <c r="M94">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="N94" s="22">
+      <c r="N94" s="21">
         <f t="shared" si="4"/>
-        <v>9.618745179483966</v>
+        <v>9.6190726562840876</v>
       </c>
     </row>
     <row r="95" spans="10:14" x14ac:dyDescent="0.3">
@@ -30698,15 +29020,15 @@
       </c>
       <c r="L95">
         <f t="shared" si="3"/>
-        <v>2722.0541499550382</v>
+        <v>2722.0588310184294</v>
       </c>
       <c r="M95">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="N95" s="22">
+      <c r="N95" s="21">
         <f t="shared" si="4"/>
-        <v>7.5112688134211583</v>
+        <v>7.511541189145631</v>
       </c>
     </row>
     <row r="96" spans="10:14" x14ac:dyDescent="0.3">
@@ -30718,15 +29040,15 @@
       </c>
       <c r="L96">
         <f t="shared" si="3"/>
-        <v>2728.6781366282958</v>
+        <v>2728.683065054855</v>
       </c>
       <c r="M96">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="N96" s="22">
+      <c r="N96" s="21">
         <f t="shared" si="4"/>
-        <v>5.7977560270684476</v>
+        <v>5.7979794223094654</v>
       </c>
     </row>
     <row r="97" spans="10:14" x14ac:dyDescent="0.3">
@@ -30738,15 +29060,15 @@
       </c>
       <c r="L97">
         <f t="shared" si="3"/>
-        <v>2733.7626940518348</v>
+        <v>2733.7678240071546</v>
       </c>
       <c r="M97">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="N97" s="22">
+      <c r="N97" s="21">
         <f t="shared" si="4"/>
-        <v>4.4234213855328868</v>
+        <v>4.4236020948455916</v>
       </c>
     </row>
     <row r="98" spans="10:14" x14ac:dyDescent="0.3">
@@ -30758,15 +29080,15 @@
       </c>
       <c r="L98">
         <f t="shared" si="3"/>
-        <v>2737.6205275454295</v>
+        <v>2737.6258194515408</v>
       </c>
       <c r="M98">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="N98" s="22">
+      <c r="N98" s="21">
         <f t="shared" si="4"/>
-        <v>3.3358647672445851</v>
+        <v>3.3360089660209984</v>
       </c>
     </row>
     <row r="99" spans="10:14" x14ac:dyDescent="0.3">
@@ -30778,15 +29100,15 @@
       </c>
       <c r="L99">
         <f t="shared" si="3"/>
-        <v>2740.5138072251812</v>
+        <v>2740.5192275244935</v>
       </c>
       <c r="M99">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="N99" s="22">
+      <c r="N99" s="21">
         <f t="shared" si="4"/>
-        <v>2.4866250570231077</v>
+        <v>2.4867385794970751</v>
       </c>
     </row>
     <row r="100" spans="10:14" x14ac:dyDescent="0.3">
@@ -30798,15 +29120,15 @@
       </c>
       <c r="L100">
         <f t="shared" si="3"/>
-        <v>2742.6586426185399</v>
+        <v>2742.6641633504987</v>
       </c>
       <c r="M100">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="N100" s="22">
+      <c r="N100" s="21">
         <f t="shared" si="4"/>
-        <v>1.8321622080861504</v>
+        <v>1.8322503939407608</v>
       </c>
     </row>
     <row r="101" spans="10:14" x14ac:dyDescent="0.3">
@@ -30818,15 +29140,15 @@
       </c>
       <c r="L101">
         <f t="shared" si="3"/>
-        <v>2744.2302864409353</v>
+        <v>2744.2358846968782</v>
       </c>
       <c r="M101">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N101" s="22">
+      <c r="N101" s="21">
         <f t="shared" si="4"/>
-        <v>1.3343485309526018</v>
+        <v>1.3344161336807454</v>
       </c>
     </row>
     <row r="102" spans="10:14" x14ac:dyDescent="0.3">
@@ -30838,15 +29160,15 @@
       </c>
       <c r="L102">
         <f t="shared" si="3"/>
-        <v>2745.3686235707301</v>
+        <v>2745.3742808840539</v>
       </c>
       <c r="M102">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N102" s="22">
+      <c r="N102" s="21">
         <f t="shared" si="4"/>
-        <v>0.9605641830781414</v>
+        <v>0.96061533050944903</v>
       </c>
     </row>
     <row r="103" spans="10:14" x14ac:dyDescent="0.3">
@@ -30858,15 +29180,15 @@
       </c>
       <c r="L103">
         <f t="shared" si="3"/>
-        <v>2746.1835985611342</v>
+        <v>2746.1893002795641</v>
       </c>
       <c r="M103">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="N103" s="22">
+      <c r="N103" s="21">
         <f t="shared" si="4"/>
-        <v>0.68349484268662586</v>
+        <v>0.68353303880701677</v>
       </c>
     </row>
     <row r="104" spans="10:14" x14ac:dyDescent="0.3">
@@ -30878,15 +29200,15 @@
       </c>
       <c r="L104">
         <f t="shared" si="3"/>
-        <v>2746.7603308511334</v>
+        <v>2746.7660655268705</v>
       </c>
       <c r="M104">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="N104" s="22">
+      <c r="N104" s="21">
         <f t="shared" si="4"/>
-        <v>0.48072404014795056</v>
+        <v>0.48075219725437573</v>
       </c>
     </row>
     <row r="105" spans="10:14" x14ac:dyDescent="0.3">
@@ -30898,15 +29220,15 @@
       </c>
       <c r="L105">
         <f t="shared" si="3"/>
-        <v>2747.1637540392703</v>
+        <v>2747.1695128621805</v>
       </c>
       <c r="M105">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="N105" s="22">
+      <c r="N105" s="21">
         <f t="shared" si="4"/>
-        <v>0.33420133927457946</v>
+        <v>0.33422183032274166</v>
       </c>
     </row>
     <row r="106" spans="10:14" x14ac:dyDescent="0.3">
@@ -30918,15 +29240,15 @@
       </c>
       <c r="L106">
         <f t="shared" si="3"/>
-        <v>2747.4426897055041</v>
+        <v>2747.448465995044</v>
       </c>
       <c r="M106">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="N106" s="22">
+      <c r="N106" s="21">
         <f t="shared" si="4"/>
-        <v>0.22965308135261789</v>
+        <v>0.22966780375531567</v>
       </c>
     </row>
     <row r="107" spans="10:14" x14ac:dyDescent="0.3">
@@ -30938,15 +29260,15 @@
       </c>
       <c r="L107">
         <f t="shared" si="3"/>
-        <v>2747.6333252332174</v>
+        <v>2747.6391139968714</v>
       </c>
       <c r="M107">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="N107" s="22">
+      <c r="N107" s="21">
         <f t="shared" si="4"/>
-        <v>0.15598689519193065</v>
+        <v>0.15599733902372892</v>
       </c>
     </row>
     <row r="108" spans="10:14" x14ac:dyDescent="0.3">
@@ -30958,15 +29280,15 @@
       </c>
       <c r="L108">
         <f t="shared" si="3"/>
-        <v>2747.7621087352263</v>
+        <v>2747.7679062950829</v>
       </c>
       <c r="M108">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="N108" s="22">
+      <c r="N108" s="21">
         <f t="shared" si="4"/>
-        <v>0.10472628472098479</v>
+        <v>0.1047336000457143</v>
       </c>
     </row>
     <row r="109" spans="10:14" x14ac:dyDescent="0.3">
@@ -30978,15 +29300,15 @@
       </c>
       <c r="L109">
         <f t="shared" si="3"/>
-        <v>2747.848103738238</v>
+        <v>2747.8539074228734</v>
       </c>
       <c r="M109">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="N109" s="22">
+      <c r="N109" s="21">
         <f t="shared" si="4"/>
-        <v>6.9498435090771346E-2</v>
+        <v>6.9503494778387423E-2</v>
       </c>
     </row>
   </sheetData>
